--- a/resdataTemp-10.xlsx
+++ b/resdataTemp-10.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,363 +445,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>531.8628253068</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>946.855745932765</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>388.5525948431315</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7803</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.1237</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.0301</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0594</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>800</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1531.123730073688</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50.59055635740984</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.710320591016015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.00996710270335893</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.090538556815177</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.180531273012258</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.008642476453191781</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>565.8637602589832</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1014.165101204967</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>476.6879802247402</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>910.9525613339517</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>265.7496832134468</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>675.3009347236263</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>198.8007063439815</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>602.8555739945423</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>197.904962979909</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>601.892923021704</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>147.7307557158675</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>548.2204364520915</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>93.30424407338845</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>490.4847637631127</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>288.39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>47.95524587210288</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>881.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2.635310485306992</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -814,7 +874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,148 +883,213 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ni</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPDm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.6653186805444643</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.6921468442826172</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.961239202403705</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>165.66</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>34.08691101624133</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>6.30138102032644</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>75.18001754625983</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>34.67423543877997</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>0.8493081675361784</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>9.278966687333023</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>0.8372032104187066</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5.486547529721208</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>0.8149530128611192</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>25.74026789042563</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>0.8369350500142486</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.09261614093091428</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.09532519527189273</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.9715809200993346</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.5720966697914207</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>320512.6166311569</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>481838.8476202379</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -977,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,170 +1111,255 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Qg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41307.22176607735</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>41724.46643038117</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>89566.43801360825</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>90471.14950869521</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>39398.88543141375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>39796.853971125</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>512.8768424796791</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>518.0574166461405</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>33046.14968843435</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>33379.94918023672</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>39142.69026778628</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>39538.0709775619</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>80155.72232893915</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>252675.6746698031</v>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1162,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,35 +1381,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>480975538.6131463</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1214,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,612 +1443,784 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>503.8265077259479</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>8.058030776485932</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3408.273333936265</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>298.5034279549061</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2752.466016938488</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>297.4157818973405</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1330.461255936109</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>165.7646222289188</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>704.9449772891826</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>164.3452304825399</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>694.3817912647302</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>177.6417401377161</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.6835475596169079</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2794.947853336091</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>164.3452303470677</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2762.121620641853</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>162.1658988106399</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>684.9117661449854</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>78.60685928513959</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>162.1658988106399</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>684.9117661449854</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>90.36353258262965</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>60</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>251.7427117440669</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>90.36039513994525</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>100.4778294448875</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.103159675893474</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>421.1819747519014</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>14.10201971628383</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>61.98744625981294</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.1031596070082555</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>259.568477595438</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>14.10164582814331</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>52.9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>192.602</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>52.9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>192.602</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>19.72796351314564</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>80.21474785693663</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>335.8591492769937</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>19.72796351314564</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>162.7610451182061</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.1337553207007917</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2799.695994264812</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.667100051822</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>106.4428728347082</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.1270675546657521</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>446.371138447662</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1.667100051822</v>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>100.4583557894415</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>420.6191356903915</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>106.38165681</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>445.41999706347</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>56.34086374480111</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>202.3831279625776</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>145.8468567965432</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.1085891325194463</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2767.696390644519</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>12.43491323933097</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>501.0737600802956</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>7.485082666796699</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>3408.273333936265</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>60.76445729284069</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.766761218050325</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>192.3469098337882</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.5309920022385258</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2837.639825737957</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>60.76445729284069</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>6.995284116465848</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>175.1722720359097</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>0.6004469709905094</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>2794.947853336091</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>6.847114007967877</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>188.3519229377934</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>0.5309920022385258</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2828.908686953733</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>6.976446487520218</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>126.9965588585767</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>0.2468681283037367</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2707.435027728283</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7.03547719372653</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>99.61169539457416</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>111.0443129720504</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>0.1484815175684877</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>2635.609033799518</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7.077927434840912</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>97.43869680877046</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>111.0443129720504</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>0.1484815175684877</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>2635.609033799518</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>7.077927434840912</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>97.43869680877046</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>44.36047378145128</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>0.009283892636601555</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>2298.635679389075</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>7.284706406241821</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>88.20082405597786</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>44.36047378039189</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>0.009283892636601555</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>185.7610980677781</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1839,12 +2231,17 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1855,88 +2252,116 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>52.9</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>222.3145539743613</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>750</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>106.38165681</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>446.7554559282174</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>750</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>523.7526870302496</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>3520.731312391168</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>38.57376363052654</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>80</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>336.57</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>538.7526870302496</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>3.761950276060436</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3536.95373345715</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41.20034117881757</v>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1949,7 +2374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,423 +2383,472 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CH4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>700</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3687.984095444761</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>450</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3030.242194144161</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>275</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2555.053440566289</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>791.1357141934237</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1348.041621038311</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18.07477252956445</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1686684666338336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.05094889585944175</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1314.945609121741</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>365775.9950500099</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.168738364456343</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0503573198627571</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.0975081144748292</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.681387369772999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.00200883143307171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>357336.4842549912</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>23.73392251770772</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.081111111111111</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>293.1871693088577</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>947.3852286745408</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2382,21 +2856,26 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>343.3557890055408</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1.2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>631.5000402827663</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>947.3852286745408</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2404,118 +2883,134 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>750</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1.2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1189.281960837511</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>315.4792773259386</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>693.1133441047123</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>432.9231568623727</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +3025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,148 +3034,213 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ni</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPDm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.6653186805444643</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.6921468442826172</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.961239202403705</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>165.66</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>34.08691101624133</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>6.30138102032644</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>75.18001754625983</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>34.67423543877997</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>0.8493081675361784</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>9.278966687333023</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>0.8372032104187066</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5.486547529721208</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>0.8149530128611192</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>25.74026789042563</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>0.8369350500142486</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.09261614093091428</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.09532519527189273</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.9715809200993346</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.5720966697914207</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>320512.6166311569</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>481838.8476202379</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2693,7 +3253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2702,170 +3262,255 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Qg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41307.22176607735</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>41724.46643038117</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>89566.43801360825</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>90471.14950869521</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>39398.88543141375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>39796.853971125</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>512.8768424796791</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>518.0574166461405</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>33046.14968843435</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>33379.94918023672</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>39142.69026778628</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>39538.0709775619</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>80155.72232893915</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>252675.6746698031</v>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2878,7 +3523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,35 +3532,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>480975538.6131463</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2930,7 +3585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2939,363 +3594,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>531.8628253068</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>946.855745932765</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>388.5525948431315</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7803</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.1237</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.0301</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0594</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>800</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1531.123730073688</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50.59055635740984</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.710320591016015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.00996710270335893</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.090538556815177</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.180531273012258</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.008642476453191781</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>565.8637602589832</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1014.165101204967</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>476.6879802247402</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>910.9525613339517</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>265.7496832134468</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>675.3009347236263</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>198.8007063439815</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>602.8555739945423</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>197.904962979909</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>601.892923021704</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>147.7307557158675</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>548.2204364520915</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>93.30424407338845</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>490.4847637631127</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>439.1431512005413</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.7720662507409526</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.1103182328138863</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.03721117641060299</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.07365225711237984</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.006752082922178312</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>288.39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>47.95524587210288</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>881.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2.635310485306992</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3308,7 +4023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,612 +4032,784 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>503.8265077259479</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>8.058030776485932</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3408.273333936265</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>298.5034279549061</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2752.466016938488</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>297.4157818973405</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1330.461255936109</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>165.7646222289188</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>8.408297854380473</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>704.9449772891826</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>164.3452304825399</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>694.3817912647302</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>62.98466002627777</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>177.6417401377161</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.6835475596169079</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2794.947853336091</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>164.3452303470677</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2762.121620641853</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>162.1658988106399</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>684.9117661449854</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>78.60685928513959</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>162.1658988106399</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>684.9117661449854</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>90.36353258262965</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>60</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.6896306437581652</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>251.7427117440669</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>90.36039513994525</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>100.4778294448875</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.103159675893474</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>421.1819747519014</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>14.10201971628383</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>61.98744625981294</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.1031596070082555</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>259.568477595438</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>14.10164582814331</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>52.9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>192.602</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>52.9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>192.602</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>19.72796351314564</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>80.21474785693663</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>335.8591492769937</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>19.72796351314564</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>162.7610451182061</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.1337553207007917</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2799.695994264812</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.667100051822</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>106.4428728347082</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.1270675546657521</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>446.371138447662</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1.667100051822</v>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>100.4583557894415</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>420.6191356903915</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>106.38165681</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>445.41999706347</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>56.34086374480111</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>202.3831279625776</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>156.6072908020848</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>145.8468567965432</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.1085891325194463</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2767.696390644519</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>12.43491323933097</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>501.0737600802956</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>7.485082666796699</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>3408.273333936265</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>60.76445729284069</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.766761218050325</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>192.3469098337882</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.5309920022385258</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2837.639825737957</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>60.76445729284069</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>6.995284116465848</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>175.1722720359097</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>0.6004469709905094</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>2794.947853336091</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>15.62219925886183</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>6.847114007967877</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>188.3519229377934</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>0.5309920022385258</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2828.908686953733</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>6.976446487520218</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>126.9965588585767</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>0.2468681283037367</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2707.435027728283</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7.03547719372653</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>99.61169539457416</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>111.0443129720504</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>0.1484815175684877</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>2635.609033799518</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7.077927434840912</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>97.43869680877046</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>111.0443129720504</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>0.1484815175684877</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>2635.609033799518</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>7.077927434840912</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>97.43869680877046</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>44.36047378145128</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>0.009283892636601555</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>2298.635679389075</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>7.284706406241821</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>88.20082405597786</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>44.36047378039189</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>0.009283892636601555</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>185.7610980677781</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>44.50666736408374</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>186.9735629813095</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>76.38665655170252</v>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -3933,12 +4820,17 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -3949,88 +4841,116 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>52.9</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>222.3145539743613</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>750</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>106.38165681</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>446.7554559282174</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>750</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>523.7526870302496</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>3520.731312391168</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>38.57376363052654</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>80</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>336.57</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>538.7526870302496</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>3.761950276060436</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3536.95373345715</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41.20034117881757</v>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4043,7 +4963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,423 +4972,472 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CH4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>700</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3687.984095444761</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>450</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3030.242194144161</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>275</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2555.053440566289</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>791.1357141934237</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>45.44187131321763</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1348.041621038311</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18.07477252956445</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1686684666338336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.05094889585944175</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1314.945609121741</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>365775.9950500099</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.168738364456343</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0503573198627571</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.0975081144748292</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.681387369772999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.00200883143307171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>357336.4842549912</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>23.73392251770772</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>90.18278797812695</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1287.374312092277</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.081111111111111</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1712199287687901</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.03639132349792378</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.09894212539365227</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.6914082478657125</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.002038374473921336</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>293.1871693088577</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>947.3852286745408</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -4476,21 +5445,26 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>343.3557890055408</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1.2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>631.5000402827663</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>947.3852286745408</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -4498,118 +5472,134 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>750</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1.2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1189.281960837511</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>315.4792773259386</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>693.1133441047123</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>432.9231568623727</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>971.1191545992567</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.7483710044874764</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1676797843374576</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.0168959431798386</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.009594500057531747</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.05745876793769566</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/resdataTemp-10.xlsx
+++ b/resdataTemp-10.xlsx
@@ -525,7 +525,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>388.5525948431315</v>
+        <v>390.5220299675315</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.59055635740984</v>
+        <v>50.60244844515817</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>565.8637602589832</v>
+        <v>565.7208808633476</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1014.165101204967</v>
+        <v>1013.878529733006</v>
       </c>
       <c r="E5" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>476.6879802247402</v>
+        <v>476.6768614651031</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>910.9525613339517</v>
+        <v>910.8243380123092</v>
       </c>
       <c r="E6" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>265.7496832134468</v>
+        <v>266.1299526602204</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>675.3009347236263</v>
+        <v>675.6086349076343</v>
       </c>
       <c r="E7" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.8007063439815</v>
+        <v>199.0516769795196</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>602.8555739945423</v>
+        <v>603.0211235699333</v>
       </c>
       <c r="E8" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.904962979909</v>
+        <v>198.1558705402499</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>601.892923021704</v>
+        <v>602.0583915545957</v>
       </c>
       <c r="E9" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.7307557158675</v>
+        <v>147.9593067818351</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.2204364520915</v>
+        <v>548.3615170629579</v>
       </c>
       <c r="E10" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.30424407338845</v>
+        <v>93.39462966683386</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>490.4847637631127</v>
+        <v>490.4797916835942</v>
       </c>
       <c r="E11" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.95524587210288</v>
+        <v>47.96651848962214</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.635310485306992</v>
+        <v>2.63592995553606</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6653186805444643</v>
+        <v>0.6671351826795304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6921468442826172</v>
+        <v>0.6934067629608771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.961239202403705</v>
+        <v>0.9621123102849966</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.18001754625983</v>
+        <v>75.41891558815585</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.67423543877997</v>
+        <v>34.79929772357494</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493081675361784</v>
+        <v>0.849310111803437</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.278966687333023</v>
+        <v>9.305546545602274</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372032104187066</v>
+        <v>0.8372029940207388</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.486547529721208</v>
+        <v>5.504174928387046</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530128611192</v>
+        <v>0.8149531168160834</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.74026789042563</v>
+        <v>25.80989639059159</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8369350500142486</v>
+        <v>0.8365709798942638</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09261614093091428</v>
+        <v>0.08790665419272695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09532519527189273</v>
+        <v>0.090431758740324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9715809200993346</v>
+        <v>0.9720772372143295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5720966697914207</v>
+        <v>0.6046417373737825</v>
       </c>
     </row>
     <row r="13">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41307.22176607735</v>
+        <v>41297.67509344397</v>
       </c>
       <c r="C2" t="n">
-        <v>41724.46643038117</v>
+        <v>41714.82332671108</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89566.43801360825</v>
+        <v>89470.72199492724</v>
       </c>
       <c r="C3" t="n">
-        <v>90471.14950869521</v>
+        <v>90374.46666154267</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39398.88543141375</v>
+        <v>39423.7737817101</v>
       </c>
       <c r="C4" t="n">
-        <v>39796.853971125</v>
+        <v>39821.9937188991</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8768424796791</v>
+        <v>512.9400237820382</v>
       </c>
       <c r="C5" t="n">
-        <v>518.0574166461405</v>
+        <v>518.121236143473</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33046.14968843435</v>
+        <v>33066.98383281916</v>
       </c>
       <c r="C6" t="n">
-        <v>33379.94918023672</v>
+        <v>33400.99377052441</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39142.69026778628</v>
+        <v>39167.47066024766</v>
       </c>
       <c r="C7" t="n">
-        <v>39538.0709775619</v>
+        <v>39563.10167701784</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.72232893915</v>
+        <v>80155.49230662447</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.8265077259479</v>
+        <v>503.7897892032859</v>
       </c>
       <c r="C3" t="n">
-        <v>8.058030776485932</v>
+        <v>8.082703140777902</v>
       </c>
       <c r="D3" t="n">
-        <v>3408.273333936265</v>
+        <v>3407.891519186979</v>
       </c>
       <c r="E3" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.5034279549061</v>
+        <v>298.6992927518548</v>
       </c>
       <c r="C4" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.466016938488</v>
+        <v>2752.101769438243</v>
       </c>
       <c r="E4" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.4157818973405</v>
+        <v>297.595954524921</v>
       </c>
       <c r="C5" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.461255936109</v>
+        <v>1331.4574563612</v>
       </c>
       <c r="E5" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.7646222289188</v>
+        <v>165.8719768409857</v>
       </c>
       <c r="C6" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D6" t="n">
-        <v>704.9449772891826</v>
+        <v>705.4227388259909</v>
       </c>
       <c r="E6" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3452304825399</v>
+        <v>164.447804299846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D7" t="n">
-        <v>694.3817912647302</v>
+        <v>694.8288914161237</v>
       </c>
       <c r="E7" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.6417401377161</v>
+        <v>177.72834797741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6835475596169079</v>
+        <v>0.685291842462414</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.947853336091</v>
+        <v>2795.029738830257</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3452303470677</v>
+        <v>164.4478041641567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.121620641853</v>
+        <v>2762.229635810123</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1658988106399</v>
+        <v>162.2835909238337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D10" t="n">
-        <v>684.9117661449854</v>
+        <v>685.4238050634972</v>
       </c>
       <c r="E10" t="n">
-        <v>78.60685928513959</v>
+        <v>78.61135755480598</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1658988106399</v>
+        <v>162.2835909238337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D11" t="n">
-        <v>684.9117661449854</v>
+        <v>685.4238050634972</v>
       </c>
       <c r="E11" t="n">
-        <v>90.36353258262965</v>
+        <v>90.31430002479127</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7427117440669</v>
+        <v>251.7441905425523</v>
       </c>
       <c r="E12" t="n">
-        <v>90.36039513994525</v>
+        <v>90.31401519627599</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E13" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E14" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4778294448875</v>
+        <v>100.3766620450623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103159675893474</v>
+        <v>0.1027888717427966</v>
       </c>
       <c r="D15" t="n">
-        <v>421.1819747519014</v>
+        <v>420.7551579929372</v>
       </c>
       <c r="E15" t="n">
-        <v>14.10201971628383</v>
+        <v>14.06810195826373</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.98744625981294</v>
+        <v>61.97685476784125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1031596070082555</v>
+        <v>0.1027891392906196</v>
       </c>
       <c r="D16" t="n">
-        <v>259.568477595438</v>
+        <v>259.5238337716634</v>
       </c>
       <c r="E16" t="n">
-        <v>14.10164582814331</v>
+        <v>14.06784637477957</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.72796351314564</v>
+        <v>19.66679437431299</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.21474785693663</v>
+        <v>80.16945921019463</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>335.8591492769937</v>
+        <v>335.669525713085</v>
       </c>
       <c r="E19" t="n">
-        <v>19.72796351314564</v>
+        <v>19.66679437431299</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.7610451182061</v>
+        <v>162.0562169861557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1337553207007917</v>
+        <v>0.1337552109112935</v>
       </c>
       <c r="D20" t="n">
-        <v>2799.695994264812</v>
+        <v>2798.285998572062</v>
       </c>
       <c r="E20" t="n">
-        <v>1.667100051822</v>
+        <v>1.69116289884083</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.4428728347082</v>
+        <v>106.4428489125159</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1270675546657521</v>
+        <v>0.1270674503657288</v>
       </c>
       <c r="D21" t="n">
-        <v>446.371138447662</v>
+        <v>446.3710373342606</v>
       </c>
       <c r="E21" t="n">
-        <v>1.667100051822</v>
+        <v>1.69116289884083</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.4583557894415</v>
+        <v>100.3577812287609</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>420.6191356903915</v>
+        <v>420.1980300048218</v>
       </c>
       <c r="E22" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.34086374480111</v>
+        <v>56.33515869259116</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.8468567965432</v>
+        <v>144.864808512416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1085891325194463</v>
+        <v>0.1081988123608385</v>
       </c>
       <c r="D25" t="n">
-        <v>2767.696390644519</v>
+        <v>2765.767529968015</v>
       </c>
       <c r="E25" t="n">
-        <v>12.43491323933097</v>
+        <v>12.37696358846831</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.0737600802956</v>
+        <v>501.0476077832025</v>
       </c>
       <c r="C26" t="n">
-        <v>7.485082666796699</v>
+        <v>7.511900086107367</v>
       </c>
       <c r="D26" t="n">
-        <v>3408.273333936265</v>
+        <v>3407.891519186979</v>
       </c>
       <c r="E26" t="n">
-        <v>60.76445729284069</v>
+        <v>60.9907904894805</v>
       </c>
       <c r="F26" t="n">
-        <v>6.766761218050325</v>
+        <v>6.76471496913929</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.3469098337882</v>
+        <v>192.2444209720873</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5309920022385258</v>
+        <v>0.5326238952455116</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.639825737957</v>
+        <v>2837.325087037243</v>
       </c>
       <c r="E27" t="n">
-        <v>60.76445729284069</v>
+        <v>60.9907904894805</v>
       </c>
       <c r="F27" t="n">
-        <v>6.995284116465848</v>
+        <v>6.993235278749989</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.1722720359097</v>
+        <v>175.2608417731038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6004469709905094</v>
+        <v>0.6022151965074855</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.947853336091</v>
+        <v>2795.029738830257</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F28" t="n">
-        <v>6.847114007967877</v>
+        <v>6.845996221772642</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.3519229377934</v>
+        <v>188.2973075565381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5309920022385258</v>
+        <v>0.5326238952455116</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.908686953733</v>
+        <v>2828.693884202238</v>
       </c>
       <c r="E29" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F29" t="n">
-        <v>6.976446487520218</v>
+        <v>6.974610111410451</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.9965588585767</v>
+        <v>127.1012645455638</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2468681283037367</v>
+        <v>0.2476555723838093</v>
       </c>
       <c r="D30" t="n">
-        <v>2707.435027728283</v>
+        <v>2707.256441681646</v>
       </c>
       <c r="E30" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F30" t="n">
-        <v>7.03547719372653</v>
+        <v>7.03360787378581</v>
       </c>
       <c r="G30" t="n">
-        <v>99.61169539457416</v>
+        <v>99.59673819503958</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.0443129720504</v>
+        <v>111.139763239077</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1484815175684877</v>
+        <v>0.1489552623992681</v>
       </c>
       <c r="D31" t="n">
-        <v>2635.609033799518</v>
+        <v>2635.426923317121</v>
       </c>
       <c r="E31" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F31" t="n">
-        <v>7.077927434840912</v>
+        <v>7.076049624288276</v>
       </c>
       <c r="G31" t="n">
-        <v>97.43869680877046</v>
+        <v>97.42373610936561</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.0443129720504</v>
+        <v>111.139763239077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1484815175684877</v>
+        <v>0.1489552623992681</v>
       </c>
       <c r="D32" t="n">
-        <v>2635.609033799518</v>
+        <v>2635.426923317121</v>
       </c>
       <c r="E32" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F32" t="n">
-        <v>7.077927434840912</v>
+        <v>7.076049624288276</v>
       </c>
       <c r="G32" t="n">
-        <v>97.43869680877046</v>
+        <v>97.42373610936561</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.36047378145128</v>
+        <v>44.42610084535727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009283892636601555</v>
+        <v>0.009315412724796917</v>
       </c>
       <c r="D33" t="n">
-        <v>2298.635679389075</v>
+        <v>2298.607608724993</v>
       </c>
       <c r="E33" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F33" t="n">
-        <v>7.284706406241821</v>
+        <v>7.283242852563406</v>
       </c>
       <c r="G33" t="n">
-        <v>88.20082405597786</v>
+        <v>88.19400105833812</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.36047378039189</v>
+        <v>44.4261008443425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009283892636601555</v>
+        <v>0.009315412724796917</v>
       </c>
       <c r="D34" t="n">
-        <v>185.7610980677781</v>
+        <v>186.035462974506</v>
       </c>
       <c r="E34" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E35" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.7526870302496</v>
+        <v>523.5186745153856</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3520.731312391168</v>
+        <v>3520.21325398563</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57376363052654</v>
+        <v>38.57365293566734</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>538.7526870302496</v>
+        <v>538.5186745153856</v>
       </c>
       <c r="C42" t="n">
-        <v>3.761950276060436</v>
+        <v>3.787613687568602</v>
       </c>
       <c r="D42" t="n">
-        <v>3536.95373345715</v>
+        <v>3536.167527506467</v>
       </c>
       <c r="E42" t="n">
-        <v>41.20034117881757</v>
+        <v>41.23743798382608</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07477252956445</v>
+        <v>18.07472066051638</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2641,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -3062,13 +3062,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6653186805444643</v>
+        <v>0.6671351826795304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6921468442826172</v>
+        <v>0.6934067629608771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.961239202403705</v>
+        <v>0.9621123102849966</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.18001754625983</v>
+        <v>75.41891558815585</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +3144,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.67423543877997</v>
+        <v>34.79929772357494</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493081675361784</v>
+        <v>0.849310111803437</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +3159,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.278966687333023</v>
+        <v>9.305546545602274</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372032104187066</v>
+        <v>0.8372029940207388</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.486547529721208</v>
+        <v>5.504174928387046</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530128611192</v>
+        <v>0.8149531168160834</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3189,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.74026789042563</v>
+        <v>25.80989639059159</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8369350500142486</v>
+        <v>0.8365709798942638</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09261614093091428</v>
+        <v>0.08790665419272695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09532519527189273</v>
+        <v>0.090431758740324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9715809200993346</v>
+        <v>0.9720772372143295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5720966697914207</v>
+        <v>0.6046417373737825</v>
       </c>
     </row>
     <row r="13">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41307.22176607735</v>
+        <v>41297.67509344397</v>
       </c>
       <c r="C2" t="n">
-        <v>41724.46643038117</v>
+        <v>41714.82332671108</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89566.43801360825</v>
+        <v>89470.72199492724</v>
       </c>
       <c r="C3" t="n">
-        <v>90471.14950869521</v>
+        <v>90374.46666154267</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39398.88543141375</v>
+        <v>39423.7737817101</v>
       </c>
       <c r="C4" t="n">
-        <v>39796.853971125</v>
+        <v>39821.9937188991</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8768424796791</v>
+        <v>512.9400237820382</v>
       </c>
       <c r="C5" t="n">
-        <v>518.0574166461405</v>
+        <v>518.121236143473</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33046.14968843435</v>
+        <v>33066.98383281916</v>
       </c>
       <c r="C6" t="n">
-        <v>33379.94918023672</v>
+        <v>33400.99377052441</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39142.69026778628</v>
+        <v>39167.47066024766</v>
       </c>
       <c r="C7" t="n">
-        <v>39538.0709775619</v>
+        <v>39563.10167701784</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.72232893915</v>
+        <v>80155.49230662447</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>388.5525948431315</v>
+        <v>390.5220299675315</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3708,7 +3708,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.59055635740984</v>
+        <v>50.60244844515817</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -3733,31 +3733,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>565.8637602589832</v>
+        <v>565.7208808633476</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1014.165101204967</v>
+        <v>1013.878529733006</v>
       </c>
       <c r="E5" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="6">
@@ -3767,31 +3767,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>476.6879802247402</v>
+        <v>476.6768614651031</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>910.9525613339517</v>
+        <v>910.8243380123092</v>
       </c>
       <c r="E6" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="7">
@@ -3801,31 +3801,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>265.7496832134468</v>
+        <v>266.1299526602204</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>675.3009347236263</v>
+        <v>675.6086349076343</v>
       </c>
       <c r="E7" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="8">
@@ -3835,31 +3835,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.8007063439815</v>
+        <v>199.0516769795196</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>602.8555739945423</v>
+        <v>603.0211235699333</v>
       </c>
       <c r="E8" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="9">
@@ -3869,31 +3869,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.904962979909</v>
+        <v>198.1558705402499</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>601.892923021704</v>
+        <v>602.0583915545957</v>
       </c>
       <c r="E9" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="10">
@@ -3903,31 +3903,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.7307557158675</v>
+        <v>147.9593067818351</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.2204364520915</v>
+        <v>548.3615170629579</v>
       </c>
       <c r="E10" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="11">
@@ -3937,31 +3937,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.30424407338845</v>
+        <v>93.39462966683386</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>490.4847637631127</v>
+        <v>490.4797916835942</v>
       </c>
       <c r="E11" t="n">
-        <v>439.1431512005413</v>
+        <v>441.1244784126897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7720662507409526</v>
+        <v>0.7721012092385996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1103182328138863</v>
+        <v>0.1103750485441168</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03721117641060299</v>
+        <v>0.03718098408436182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07365225711237984</v>
+        <v>0.07359174549354722</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006752082922178312</v>
+        <v>0.006751012639374628</v>
       </c>
     </row>
     <row r="12">
@@ -3980,7 +3980,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.95524587210288</v>
+        <v>47.96651848962214</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.635310485306992</v>
+        <v>2.63592995553606</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4087,16 +4087,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.8265077259479</v>
+        <v>503.7897892032859</v>
       </c>
       <c r="C3" t="n">
-        <v>8.058030776485932</v>
+        <v>8.082703140777902</v>
       </c>
       <c r="D3" t="n">
-        <v>3408.273333936265</v>
+        <v>3407.891519186979</v>
       </c>
       <c r="E3" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +4108,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.5034279549061</v>
+        <v>298.6992927518548</v>
       </c>
       <c r="C4" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.466016938488</v>
+        <v>2752.101769438243</v>
       </c>
       <c r="E4" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +4129,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.4157818973405</v>
+        <v>297.595954524921</v>
       </c>
       <c r="C5" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.461255936109</v>
+        <v>1331.4574563612</v>
       </c>
       <c r="E5" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +4150,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.7646222289188</v>
+        <v>165.8719768409857</v>
       </c>
       <c r="C6" t="n">
-        <v>8.408297854380473</v>
+        <v>8.431638494545931</v>
       </c>
       <c r="D6" t="n">
-        <v>704.9449772891826</v>
+        <v>705.4227388259909</v>
       </c>
       <c r="E6" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +4171,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3452304825399</v>
+        <v>164.447804299846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D7" t="n">
-        <v>694.3817912647302</v>
+        <v>694.8288914161237</v>
       </c>
       <c r="E7" t="n">
-        <v>62.98466002627777</v>
+        <v>62.97383347792572</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +4192,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.6417401377161</v>
+        <v>177.72834797741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6835475596169079</v>
+        <v>0.685291842462414</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.947853336091</v>
+        <v>2795.029738830257</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +4213,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3452303470677</v>
+        <v>164.4478041641567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.121620641853</v>
+        <v>2762.229635810123</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +4234,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1658988106399</v>
+        <v>162.2835909238337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D10" t="n">
-        <v>684.9117661449854</v>
+        <v>685.4238050634972</v>
       </c>
       <c r="E10" t="n">
-        <v>78.60685928513959</v>
+        <v>78.61135755480598</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +4255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1658988106399</v>
+        <v>162.2835909238337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D11" t="n">
-        <v>684.9117661449854</v>
+        <v>685.4238050634972</v>
       </c>
       <c r="E11" t="n">
-        <v>90.36353258262965</v>
+        <v>90.31430002479127</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +4279,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6896306437581652</v>
+        <v>0.6913918090870909</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7427117440669</v>
+        <v>251.7441905425523</v>
       </c>
       <c r="E12" t="n">
-        <v>90.36039513994525</v>
+        <v>90.31401519627599</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +4297,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E13" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +4318,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E14" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4339,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4778294448875</v>
+        <v>100.3766620450623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103159675893474</v>
+        <v>0.1027888717427966</v>
       </c>
       <c r="D15" t="n">
-        <v>421.1819747519014</v>
+        <v>420.7551579929372</v>
       </c>
       <c r="E15" t="n">
-        <v>14.10201971628383</v>
+        <v>14.06810195826373</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.98744625981294</v>
+        <v>61.97685476784125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1031596070082555</v>
+        <v>0.1027891392906196</v>
       </c>
       <c r="D16" t="n">
-        <v>259.568477595438</v>
+        <v>259.5238337716634</v>
       </c>
       <c r="E16" t="n">
-        <v>14.10164582814331</v>
+        <v>14.06784637477957</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.72796351314564</v>
+        <v>19.66679437431299</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4423,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.21474785693663</v>
+        <v>80.16945921019463</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>335.8591492769937</v>
+        <v>335.669525713085</v>
       </c>
       <c r="E19" t="n">
-        <v>19.72796351314564</v>
+        <v>19.66679437431299</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.7610451182061</v>
+        <v>162.0562169861557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1337553207007917</v>
+        <v>0.1337552109112935</v>
       </c>
       <c r="D20" t="n">
-        <v>2799.695994264812</v>
+        <v>2798.285998572062</v>
       </c>
       <c r="E20" t="n">
-        <v>1.667100051822</v>
+        <v>1.69116289884083</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4465,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.4428728347082</v>
+        <v>106.4428489125159</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1270675546657521</v>
+        <v>0.1270674503657288</v>
       </c>
       <c r="D21" t="n">
-        <v>446.371138447662</v>
+        <v>446.3710373342606</v>
       </c>
       <c r="E21" t="n">
-        <v>1.667100051822</v>
+        <v>1.69116289884083</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.4583557894415</v>
+        <v>100.3577812287609</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>420.6191356903915</v>
+        <v>420.1980300048218</v>
       </c>
       <c r="E22" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4516,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.34086374480111</v>
+        <v>56.33515869259116</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>156.6072908020848</v>
+        <v>156.1217093528443</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.8468567965432</v>
+        <v>144.864808512416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1085891325194463</v>
+        <v>0.1081988123608385</v>
       </c>
       <c r="D25" t="n">
-        <v>2767.696390644519</v>
+        <v>2765.767529968015</v>
       </c>
       <c r="E25" t="n">
-        <v>12.43491323933097</v>
+        <v>12.37696358846831</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4570,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.0737600802956</v>
+        <v>501.0476077832025</v>
       </c>
       <c r="C26" t="n">
-        <v>7.485082666796699</v>
+        <v>7.511900086107367</v>
       </c>
       <c r="D26" t="n">
-        <v>3408.273333936265</v>
+        <v>3407.891519186979</v>
       </c>
       <c r="E26" t="n">
-        <v>60.76445729284069</v>
+        <v>60.9907904894805</v>
       </c>
       <c r="F26" t="n">
-        <v>6.766761218050325</v>
+        <v>6.76471496913929</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4595,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.3469098337882</v>
+        <v>192.2444209720873</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5309920022385258</v>
+        <v>0.5326238952455116</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.639825737957</v>
+        <v>2837.325087037243</v>
       </c>
       <c r="E27" t="n">
-        <v>60.76445729284069</v>
+        <v>60.9907904894805</v>
       </c>
       <c r="F27" t="n">
-        <v>6.995284116465848</v>
+        <v>6.993235278749989</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.1722720359097</v>
+        <v>175.2608417731038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6004469709905094</v>
+        <v>0.6022151965074855</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.947853336091</v>
+        <v>2795.029738830257</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62219925886183</v>
+        <v>15.63752407688027</v>
       </c>
       <c r="F28" t="n">
-        <v>6.847114007967877</v>
+        <v>6.845996221772642</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4645,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.3519229377934</v>
+        <v>188.2973075565381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5309920022385258</v>
+        <v>0.5326238952455116</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.908686953733</v>
+        <v>2828.693884202238</v>
       </c>
       <c r="E29" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F29" t="n">
-        <v>6.976446487520218</v>
+        <v>6.974610111410451</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4670,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.9965588585767</v>
+        <v>127.1012645455638</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2468681283037367</v>
+        <v>0.2476555723838093</v>
       </c>
       <c r="D30" t="n">
-        <v>2707.435027728283</v>
+        <v>2707.256441681646</v>
       </c>
       <c r="E30" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F30" t="n">
-        <v>7.03547719372653</v>
+        <v>7.03360787378581</v>
       </c>
       <c r="G30" t="n">
-        <v>99.61169539457416</v>
+        <v>99.59673819503958</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4695,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.0443129720504</v>
+        <v>111.139763239077</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1484815175684877</v>
+        <v>0.1489552623992681</v>
       </c>
       <c r="D31" t="n">
-        <v>2635.609033799518</v>
+        <v>2635.426923317121</v>
       </c>
       <c r="E31" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F31" t="n">
-        <v>7.077927434840912</v>
+        <v>7.076049624288276</v>
       </c>
       <c r="G31" t="n">
-        <v>97.43869680877046</v>
+        <v>97.42373610936561</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.0443129720504</v>
+        <v>111.139763239077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1484815175684877</v>
+        <v>0.1489552623992681</v>
       </c>
       <c r="D32" t="n">
-        <v>2635.609033799518</v>
+        <v>2635.426923317121</v>
       </c>
       <c r="E32" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F32" t="n">
-        <v>7.077927434840912</v>
+        <v>7.076049624288276</v>
       </c>
       <c r="G32" t="n">
-        <v>97.43869680877046</v>
+        <v>97.42373610936561</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4745,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.36047378145128</v>
+        <v>44.42610084535727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009283892636601555</v>
+        <v>0.009315412724796917</v>
       </c>
       <c r="D33" t="n">
-        <v>2298.635679389075</v>
+        <v>2298.607608724993</v>
       </c>
       <c r="E33" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F33" t="n">
-        <v>7.284706406241821</v>
+        <v>7.283242852563406</v>
       </c>
       <c r="G33" t="n">
-        <v>88.20082405597786</v>
+        <v>88.19400105833812</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4770,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.36047378039189</v>
+        <v>44.4261008443425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009283892636601555</v>
+        <v>0.009315412724796917</v>
       </c>
       <c r="D34" t="n">
-        <v>185.7610980677781</v>
+        <v>186.035462974506</v>
       </c>
       <c r="E34" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4791,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.50666736408374</v>
+        <v>44.55670339559958</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9735629813095</v>
+        <v>187.182645379472</v>
       </c>
       <c r="E35" t="n">
-        <v>76.38665655170252</v>
+        <v>76.62831456636076</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4896,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.7526870302496</v>
+        <v>523.5186745153856</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3520.731312391168</v>
+        <v>3520.21325398563</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57376363052654</v>
+        <v>38.57365293566734</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>538.7526870302496</v>
+        <v>538.5186745153856</v>
       </c>
       <c r="C42" t="n">
-        <v>3.761950276060436</v>
+        <v>3.787613687568602</v>
       </c>
       <c r="D42" t="n">
-        <v>3536.95373345715</v>
+        <v>3536.167527506467</v>
       </c>
       <c r="E42" t="n">
-        <v>41.20034117881757</v>
+        <v>41.23743798382608</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +5049,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44187131321763</v>
+        <v>45.44174090899794</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07477252956445</v>
+        <v>18.07472066051638</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5230,16 +5230,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>

--- a/resdataTemp-10.xlsx
+++ b/resdataTemp-10.xlsx
@@ -525,7 +525,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>390.5220299675315</v>
+        <v>458.6102048738643</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.60244844515817</v>
+        <v>9.738388094973887</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>565.7208808633476</v>
+        <v>538.0659412254637</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1013.878529733006</v>
+        <v>959.0044498393249</v>
       </c>
       <c r="E5" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>476.6768614651031</v>
+        <v>464.2496282725698</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>910.8243380123092</v>
+        <v>874.6012204518446</v>
       </c>
       <c r="E6" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266.1299526602204</v>
+        <v>295.0943451027076</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>675.6086349076343</v>
+        <v>686.622680528016</v>
       </c>
       <c r="E7" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.0516769795196</v>
+        <v>228.5573629397518</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>603.0211235699333</v>
+        <v>614.6632719650452</v>
       </c>
       <c r="E8" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>198.1558705402499</v>
+        <v>227.6354505301621</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>602.0583915545957</v>
+        <v>613.673311354859</v>
       </c>
       <c r="E9" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.9593067818351</v>
+        <v>168.3881048909939</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.3615170629579</v>
+        <v>550.4186033964642</v>
       </c>
       <c r="E10" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.39462966683386</v>
+        <v>102.8653696119047</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>490.4797916835942</v>
+        <v>481.1906838761896</v>
       </c>
       <c r="E11" t="n">
-        <v>441.1244784126897</v>
+        <v>468.3485929688382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7721012092385996</v>
+        <v>0.7788104966245448</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1103750485441168</v>
+        <v>0.1212792088432409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03718098408436182</v>
+        <v>0.03138642747475125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07359174549354722</v>
+        <v>0.06197826470163885</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006751012639374628</v>
+        <v>0.006545602355824312</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.96651848962214</v>
+        <v>9.231106141492972</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.63592995553606</v>
+        <v>0.5072819534809206</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6671351826795304</v>
+        <v>0.6438127980294092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6934067629608771</v>
+        <v>0.6771213880823321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9621123102849966</v>
+        <v>0.9508085394448167</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.41891558815585</v>
+        <v>72.4177750815843</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.79929772357494</v>
+        <v>33.21205145282004</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849310111803437</v>
+        <v>0.8492810319590857</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.305546545602274</v>
+        <v>8.970609725407808</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372029940207388</v>
+        <v>0.8372057997386555</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.504174928387046</v>
+        <v>5.281831019834451</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149531168160834</v>
+        <v>0.8149517731413185</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.80989639059159</v>
+        <v>24.95328288352201</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8365709798942638</v>
+        <v>0.8421057367332108</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08790665419272695</v>
+        <v>0.167252721505294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.090431758740324</v>
+        <v>0.1731436119186991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9720772372143295</v>
+        <v>0.9659768538490972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6046417373737825</v>
+        <v>0.3052177892646171</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>320512.6166311569</v>
+        <v>47927.12814011989</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481838.8476202379</v>
+        <v>71991.72626232299</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41297.67509344397</v>
+        <v>41399.80293438157</v>
       </c>
       <c r="C2" t="n">
-        <v>41714.82332671108</v>
+        <v>41817.98276200159</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89470.72199492724</v>
+        <v>90721.72764036464</v>
       </c>
       <c r="C3" t="n">
-        <v>90374.46666154267</v>
+        <v>91638.10872764105</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39423.7737817101</v>
+        <v>39072.69079011845</v>
       </c>
       <c r="C4" t="n">
-        <v>39821.9937188991</v>
+        <v>39467.36443446307</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.9400237820382</v>
+        <v>512.1508079223291</v>
       </c>
       <c r="C5" t="n">
-        <v>518.121236143473</v>
+        <v>517.3240484063931</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33066.98383281916</v>
+        <v>32804.38829445309</v>
       </c>
       <c r="C6" t="n">
-        <v>33400.99377052441</v>
+        <v>33135.74575197282</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39167.47066024766</v>
+        <v>38835.25717288246</v>
       </c>
       <c r="C7" t="n">
-        <v>39563.10167701784</v>
+        <v>39227.53249786107</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.49230662447</v>
+        <v>15029.13923527911</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>252675.6746698031</v>
+        <v>37741.81306167926</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480975538.6131463</v>
+        <v>88098436.90592502</v>
       </c>
       <c r="C3" t="n">
-        <v>90.18278797812695</v>
+        <v>79.6076209778164</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7897892032859</v>
+        <v>512.5013071645011</v>
       </c>
       <c r="C3" t="n">
-        <v>8.082703140777902</v>
+        <v>6.779772763311104</v>
       </c>
       <c r="D3" t="n">
-        <v>3407.891519186979</v>
+        <v>3444.109731635015</v>
       </c>
       <c r="E3" t="n">
-        <v>62.97383347792572</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.6992927518548</v>
+        <v>287.1691979871553</v>
       </c>
       <c r="C4" t="n">
-        <v>8.431638494545931</v>
+        <v>7.139712128850258</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.101769438243</v>
+        <v>2770.794756620061</v>
       </c>
       <c r="E4" t="n">
-        <v>62.97383347792572</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.595954524921</v>
+        <v>286.5116983054752</v>
       </c>
       <c r="C5" t="n">
-        <v>8.431638494545931</v>
+        <v>7.139712128850258</v>
       </c>
       <c r="D5" t="n">
-        <v>1331.4574563612</v>
+        <v>1271.249920403928</v>
       </c>
       <c r="E5" t="n">
-        <v>62.97383347792572</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8719768409857</v>
+        <v>164.1449629393682</v>
       </c>
       <c r="C6" t="n">
-        <v>8.431638494545931</v>
+        <v>7.139712128850258</v>
       </c>
       <c r="D6" t="n">
-        <v>705.4227388259909</v>
+        <v>697.2082524384043</v>
       </c>
       <c r="E6" t="n">
-        <v>62.97383347792572</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.447804299846</v>
+        <v>157.7526150141606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.5836919880911448</v>
       </c>
       <c r="D7" t="n">
-        <v>694.8288914161237</v>
+        <v>665.7175617883809</v>
       </c>
       <c r="E7" t="n">
-        <v>62.97383347792572</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.72834797741</v>
+        <v>170.5193389891837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.685291842462414</v>
+        <v>0.5773132608663687</v>
       </c>
       <c r="D8" t="n">
-        <v>2795.029738830257</v>
+        <v>2785.846280045275</v>
       </c>
       <c r="E8" t="n">
-        <v>15.63752407688027</v>
+        <v>14.85297087849454</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.4478041641567</v>
+        <v>157.7526148921971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.5836919880911448</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.229635810123</v>
+        <v>2754.94203584371</v>
       </c>
       <c r="E9" t="n">
-        <v>15.63752407688027</v>
+        <v>14.85297087849454</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.2835909238337</v>
+        <v>157.7526150141606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.5836919880911448</v>
       </c>
       <c r="D10" t="n">
-        <v>685.4238050634972</v>
+        <v>689.02881258451</v>
       </c>
       <c r="E10" t="n">
-        <v>78.61135755480598</v>
+        <v>72.9766025853705</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.2835909238337</v>
+        <v>157.7526150141606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.5836919880911448</v>
       </c>
       <c r="D11" t="n">
-        <v>685.4238050634972</v>
+        <v>689.02881258451</v>
       </c>
       <c r="E11" t="n">
-        <v>90.31430002479127</v>
+        <v>73.38912003179315</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.5836919880911448</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7441905425523</v>
+        <v>251.6537570242487</v>
       </c>
       <c r="E12" t="n">
-        <v>90.31401519627599</v>
+        <v>73.3894984425679</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.55670339559958</v>
+        <v>59.38475775465128</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>187.182645379472</v>
+        <v>249.1745301863212</v>
       </c>
       <c r="E13" t="n">
-        <v>76.62831456636076</v>
+        <v>72.97436839502062</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.55670339559958</v>
+        <v>58.91733644797654</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>187.182645379472</v>
+        <v>247.219182711329</v>
       </c>
       <c r="E14" t="n">
-        <v>76.62831456636076</v>
+        <v>64.45554136991986</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.3766620450623</v>
+        <v>95.26628835552043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1027888717427966</v>
+        <v>0.08544113381426123</v>
       </c>
       <c r="D15" t="n">
-        <v>420.7551579929372</v>
+        <v>399.2107647887242</v>
       </c>
       <c r="E15" t="n">
-        <v>14.06810195826373</v>
+        <v>60.02018288197542</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.97685476784125</v>
+        <v>61.65016805307738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1027891392906196</v>
+        <v>0.08544054846977307</v>
       </c>
       <c r="D16" t="n">
-        <v>259.5238337716634</v>
+        <v>258.1418937698579</v>
       </c>
       <c r="E16" t="n">
-        <v>14.06784637477957</v>
+        <v>60.01830023209041</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.66679437431299</v>
+        <v>79.21284997217968</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.16945921019463</v>
+        <v>78.17254969126381</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>335.669525713085</v>
+        <v>327.3084655573216</v>
       </c>
       <c r="E19" t="n">
-        <v>19.66679437431299</v>
+        <v>79.21284997217968</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.0562169861557</v>
+        <v>111.5571236094487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1337552109112935</v>
+        <v>0.1510473483173407</v>
       </c>
       <c r="D20" t="n">
-        <v>2798.285998572062</v>
+        <v>2679.042334882415</v>
       </c>
       <c r="E20" t="n">
-        <v>1.69116289884083</v>
+        <v>16.65395137748631</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.4428489125159</v>
+        <v>110.0241324744551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1270674503657288</v>
+        <v>0.1434949809014737</v>
       </c>
       <c r="D21" t="n">
-        <v>446.3710373342606</v>
+        <v>461.5173145770614</v>
       </c>
       <c r="E21" t="n">
-        <v>1.69116289884083</v>
+        <v>16.65395137748631</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.3577812287609</v>
+        <v>92.49516011174956</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>420.1980300048218</v>
+        <v>387.2772353878954</v>
       </c>
       <c r="E22" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.33515869259116</v>
+        <v>56.08360617593146</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.864808512416</v>
+        <v>96.66823991688273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1081988123608385</v>
+        <v>0.0899380355939592</v>
       </c>
       <c r="D25" t="n">
-        <v>2765.767529968015</v>
+        <v>2608.251621395883</v>
       </c>
       <c r="E25" t="n">
-        <v>12.37696358846831</v>
+        <v>43.36602919042912</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.0476077832025</v>
+        <v>509.7154443998428</v>
       </c>
       <c r="C26" t="n">
-        <v>7.511900086107367</v>
+        <v>6.185183439898069</v>
       </c>
       <c r="D26" t="n">
-        <v>3407.891519186979</v>
+        <v>3444.109731635015</v>
       </c>
       <c r="E26" t="n">
-        <v>60.9907904894805</v>
+        <v>49.60413164054533</v>
       </c>
       <c r="F26" t="n">
-        <v>6.76471496913929</v>
+        <v>6.896232870089275</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.2444209720873</v>
+        <v>197.7725455323616</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5326238952455116</v>
+        <v>0.4266001798138572</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.325087037243</v>
+        <v>2854.884249725907</v>
       </c>
       <c r="E27" t="n">
-        <v>60.9907904894805</v>
+        <v>49.60413164054533</v>
       </c>
       <c r="F27" t="n">
-        <v>6.993235278749989</v>
+        <v>7.13044354109501</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.2608417731038</v>
+        <v>167.7364376069617</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6022151965074855</v>
+        <v>0.4893836958485478</v>
       </c>
       <c r="D28" t="n">
-        <v>2795.029738830257</v>
+        <v>2785.846280045275</v>
       </c>
       <c r="E28" t="n">
-        <v>15.63752407688027</v>
+        <v>14.85297087849454</v>
       </c>
       <c r="F28" t="n">
-        <v>6.845996221772642</v>
+        <v>6.917362618911524</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.2973075565381</v>
+        <v>190.2696907068306</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5326238952455116</v>
+        <v>0.4266001798138572</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.693884202238</v>
+        <v>2838.975701046203</v>
       </c>
       <c r="E29" t="n">
-        <v>76.62831456636076</v>
+        <v>64.45710251903986</v>
       </c>
       <c r="F29" t="n">
-        <v>6.974610111410451</v>
+        <v>7.096389541021752</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.1012645455638</v>
+        <v>111.5569838970732</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2476555723838093</v>
+        <v>0.1510406428034069</v>
       </c>
       <c r="D30" t="n">
-        <v>2707.256441681646</v>
+        <v>2679.041772205306</v>
       </c>
       <c r="E30" t="n">
-        <v>76.62831456636076</v>
+        <v>64.45710251903986</v>
       </c>
       <c r="F30" t="n">
-        <v>7.03360787378581</v>
+        <v>7.183296285352318</v>
       </c>
       <c r="G30" t="n">
-        <v>99.59673819503958</v>
+        <v>99.35395390186557</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.139763239077</v>
+        <v>96.66903649105529</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1489552623992681</v>
+        <v>0.08994064542452827</v>
       </c>
       <c r="D31" t="n">
-        <v>2635.426923317121</v>
+        <v>2608.255567428382</v>
       </c>
       <c r="E31" t="n">
-        <v>76.62831456636076</v>
+        <v>47.80294882749357</v>
       </c>
       <c r="F31" t="n">
-        <v>7.076049624288276</v>
+        <v>7.226766325870262</v>
       </c>
       <c r="G31" t="n">
-        <v>97.42373610936561</v>
+        <v>97.26162513540237</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.139763239077</v>
+        <v>58.30396939822015</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1489552623992681</v>
+        <v>0.008567846307791532</v>
       </c>
       <c r="D32" t="n">
-        <v>2635.426923317121</v>
+        <v>2608.255567428382</v>
       </c>
       <c r="E32" t="n">
-        <v>76.62831456636076</v>
+        <v>4.437241137829446</v>
       </c>
       <c r="F32" t="n">
-        <v>7.076049624288276</v>
+        <v>8.294989557923932</v>
       </c>
       <c r="G32" t="n">
-        <v>97.42373610936561</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.42610084535727</v>
+        <v>54.59146362487598</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009315412724796917</v>
+        <v>0.002572936978132115</v>
       </c>
       <c r="D33" t="n">
-        <v>2298.607608724993</v>
+        <v>2602.645579393177</v>
       </c>
       <c r="E33" t="n">
-        <v>76.62831456636076</v>
+        <v>4.437241137829446</v>
       </c>
       <c r="F33" t="n">
-        <v>7.283242852563406</v>
+        <v>8.832389309218673</v>
       </c>
       <c r="G33" t="n">
-        <v>88.19400105833812</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.4261008443425</v>
+        <v>21.54581756985277</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009315412724796917</v>
+        <v>0.002572936978132115</v>
       </c>
       <c r="D34" t="n">
-        <v>186.035462974506</v>
+        <v>90.38182225564314</v>
       </c>
       <c r="E34" t="n">
-        <v>76.62831456636076</v>
+        <v>4.437241137829446</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.55670339559958</v>
+        <v>23.56625794442266</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>187.182645379472</v>
+        <v>99.47815821072162</v>
       </c>
       <c r="E35" t="n">
-        <v>76.62831456636076</v>
+        <v>4.437241137829446</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.5186745153856</v>
+        <v>497.5009221113793</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3520.21325398563</v>
+        <v>3462.728630370272</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57365293566734</v>
+        <v>7.232552431538934</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>62.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.518827025100762</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>538.5186745153856</v>
+        <v>512.5009221113793</v>
       </c>
       <c r="C42" t="n">
-        <v>3.787613687568602</v>
+        <v>6.779972366150977</v>
       </c>
       <c r="D42" t="n">
-        <v>3536.167527506467</v>
+        <v>3444.104945950647</v>
       </c>
       <c r="E42" t="n">
-        <v>41.23743798382608</v>
+        <v>8.518827025100762</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07472066051638</v>
+        <v>3.389006612379401</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2641,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>90.18278797812695</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1314.945609121741</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>90.18278797812695</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1287.374312092277</v>
-      </c>
-      <c r="E8" t="n">
-        <v>357336.4842549912</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1712199287687901</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.03639132349792378</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09894212539365227</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6914082478657125</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002038374473921336</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>90.18278797812695</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1287.374312092277</v>
-      </c>
-      <c r="E9" t="n">
-        <v>23.73392251770772</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1712199287687901</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.03639132349792378</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.09894212539365227</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.6914082478657125</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002038374473921336</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>90.18278797812695</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1287.374312092277</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1712199287687901</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.03639132349792378</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.09894212539365227</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.6914082478657125</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002038374473921336</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>947.3852286745408</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>947.3852286745408</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1189.281960837511</v>
-      </c>
-      <c r="E13" t="n">
-        <v>971.1191545992567</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7483710044874764</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1676797843374576</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0168959431798386</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009594500057531747</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05745876793769566</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.4792773259386</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>693.1133441047123</v>
-      </c>
-      <c r="E14" t="n">
-        <v>971.1191545992567</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7483710044874764</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1676797843374576</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0168959431798386</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009594500057531747</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05745876793769566</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>432.9231568623727</v>
-      </c>
-      <c r="E15" t="n">
-        <v>971.1191545992567</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7483710044874764</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1676797843374576</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0168959431798386</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009594500057531747</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05745876793769566</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6671351826795304</v>
+        <v>1.830353305537125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6934067629608771</v>
+        <v>2.037096236259266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9621123102849966</v>
+        <v>0.8985109652444381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.2284817301921016</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>165.66</v>
+        <v>133.8103355459923</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.08691101624133</v>
+        <v>32.0182469161177</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.30138102032644</v>
+        <v>6.23380305412316</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.41891558815585</v>
+        <v>42.94557821249002</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.79929772357494</v>
+        <v>29.22801837058316</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849310111803437</v>
+        <v>0.8493428682618627</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.305546545602274</v>
+        <v>10.30887764757052</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372029940207388</v>
+        <v>0.8270980332263675</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.504174928387046</v>
+        <v>3.383789324643802</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149531168160834</v>
+        <v>0.8149248045728683</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.80989639059159</v>
+        <v>0.02489286969254207</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8365709798942638</v>
+        <v>0.03354616359300531</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08790665419272695</v>
+        <v>0.0403626361033913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.090431758740324</v>
+        <v>0.04522650963472557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9720772372143295</v>
+        <v>0.8924552531111153</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6046417373737825</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>320512.6166311569</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>481838.8476202379</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41297.67509344397</v>
+        <v>39134.83238839599</v>
       </c>
       <c r="C2" t="n">
-        <v>41714.82332671108</v>
+        <v>39530.13372565251</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89470.72199492724</v>
+        <v>87159.0898348451</v>
       </c>
       <c r="C3" t="n">
-        <v>90374.46666154267</v>
+        <v>88039.48468166172</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39423.7737817101</v>
+        <v>33365.06687382377</v>
       </c>
       <c r="C4" t="n">
-        <v>39821.9937188991</v>
+        <v>33702.08775133714</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.9400237820382</v>
+        <v>459.0101922864945</v>
       </c>
       <c r="C5" t="n">
-        <v>518.121236143473</v>
+        <v>463.6466588752469</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33066.98383281916</v>
+        <v>29329.00093625932</v>
       </c>
       <c r="C6" t="n">
-        <v>33400.99377052441</v>
+        <v>29625.25347096901</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39167.47066024766</v>
+        <v>32098.57071446575</v>
       </c>
       <c r="C7" t="n">
-        <v>39563.10167701784</v>
+        <v>32422.79870148055</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>36.56124832785945</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>95.8666461655817</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.382000046923439</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24575.02565481666</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2516.000934245961</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16166.97152573007</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.169892805035</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.759096744252</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.49230662447</v>
+        <v>15029.13923527911</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27198.06915907436</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>252675.6746698031</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>480975538.6131463</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>90.18278797812695</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>531.8628253068</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>946.855745932765</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>390.5220299675315</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.60244844515817</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>565.7208808633476</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1013.878529733006</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>476.6768614651031</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>910.8243380123092</v>
-      </c>
-      <c r="E6" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>266.1299526602204</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>675.6086349076343</v>
-      </c>
-      <c r="E7" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>199.0516769795196</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>603.0211235699333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>198.1558705402499</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>602.0583915545957</v>
-      </c>
-      <c r="E9" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>147.9593067818351</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>548.3615170629579</v>
-      </c>
-      <c r="E10" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>93.39462966683386</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>490.4797916835942</v>
-      </c>
-      <c r="E11" t="n">
-        <v>441.1244784126897</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7721012092385996</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1103750485441168</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03718098408436182</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.07359174549354722</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006751012639374628</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.96651848962214</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.63592995553606</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7897892032859</v>
+        <v>504.314296123153</v>
       </c>
       <c r="C3" t="n">
-        <v>8.082703140777902</v>
+        <v>7.770021585224036</v>
       </c>
       <c r="D3" t="n">
-        <v>3407.891519186979</v>
+        <v>3412.869238805091</v>
       </c>
       <c r="E3" t="n">
-        <v>62.97383347792572</v>
+        <v>63.09400507719693</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.6992927518548</v>
+        <v>296.1787625755794</v>
       </c>
       <c r="C4" t="n">
-        <v>8.431638494545931</v>
+        <v>8.13504309718587</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.101769438243</v>
+        <v>2756.659451205225</v>
       </c>
       <c r="E4" t="n">
-        <v>62.97383347792572</v>
+        <v>63.09400507719693</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.595954524921</v>
+        <v>295.291610640297</v>
       </c>
       <c r="C5" t="n">
-        <v>8.431638494545931</v>
+        <v>8.13504309718587</v>
       </c>
       <c r="D5" t="n">
-        <v>1331.4574563612</v>
+        <v>1318.765889684308</v>
       </c>
       <c r="E5" t="n">
-        <v>62.97383347792572</v>
+        <v>63.09400507719693</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8719768409857</v>
+        <v>164.5390637258121</v>
       </c>
       <c r="C6" t="n">
-        <v>8.431638494545931</v>
+        <v>8.13504309718587</v>
       </c>
       <c r="D6" t="n">
-        <v>705.4227388259909</v>
+        <v>699.4882082701024</v>
       </c>
       <c r="E6" t="n">
-        <v>62.97383347792572</v>
+        <v>63.09400507719693</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.447804299846</v>
+        <v>163.1751676317837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.6697920475604836</v>
       </c>
       <c r="D7" t="n">
-        <v>694.8288914161237</v>
+        <v>689.2841833830836</v>
       </c>
       <c r="E7" t="n">
-        <v>62.97383347792572</v>
+        <v>63.09400507719693</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.72834797741</v>
+        <v>176.6604820149083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.685291842462414</v>
+        <v>0.6636798969239968</v>
       </c>
       <c r="D8" t="n">
-        <v>2795.029738830257</v>
+        <v>2794.021348080541</v>
       </c>
       <c r="E8" t="n">
-        <v>15.63752407688027</v>
+        <v>15.45530512937272</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.4478041641567</v>
+        <v>163.175167498769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.6697920475604836</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.229635810123</v>
+        <v>2760.881362447803</v>
       </c>
       <c r="E9" t="n">
-        <v>15.63752407688027</v>
+        <v>15.45530512937272</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.2835909238337</v>
+        <v>160.8628872692773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.6697920475604836</v>
       </c>
       <c r="D10" t="n">
-        <v>685.4238050634972</v>
+        <v>679.2454287749293</v>
       </c>
       <c r="E10" t="n">
-        <v>78.61135755480598</v>
+        <v>78.54931020656966</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.2835909238337</v>
+        <v>160.8628872692773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.6697920475604836</v>
       </c>
       <c r="D11" t="n">
-        <v>685.4238050634972</v>
+        <v>679.2454287749293</v>
       </c>
       <c r="E11" t="n">
-        <v>90.31430002479127</v>
+        <v>90.8385901167821</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6913918090870909</v>
+        <v>0.6697920475604836</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7441905425523</v>
+        <v>251.7260538178367</v>
       </c>
       <c r="E12" t="n">
-        <v>90.31401519627599</v>
+        <v>90.84598897976041</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.55670339559958</v>
+        <v>43.98646131287984</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>187.182645379472</v>
+        <v>184.799839417067</v>
       </c>
       <c r="E13" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.55670339559958</v>
+        <v>43.98646131287984</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>187.182645379472</v>
+        <v>184.799839417067</v>
       </c>
       <c r="E14" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.3766620450623</v>
+        <v>95.26628835552043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1027888717427966</v>
+        <v>0.08544113381426123</v>
       </c>
       <c r="D15" t="n">
-        <v>420.7551579929372</v>
+        <v>399.2107647887242</v>
       </c>
       <c r="E15" t="n">
-        <v>14.06810195826373</v>
+        <v>60.02018288197542</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.97685476784125</v>
+        <v>61.65016805307738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1027891392906196</v>
+        <v>0.08544054846977307</v>
       </c>
       <c r="D16" t="n">
-        <v>259.5238337716634</v>
+        <v>258.1418937698579</v>
       </c>
       <c r="E16" t="n">
-        <v>14.06784637477957</v>
+        <v>60.01830023209041</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.66679437431299</v>
+        <v>79.21284997217968</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.16945921019463</v>
+        <v>78.17254969126381</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>335.669525713085</v>
+        <v>327.3084655573216</v>
       </c>
       <c r="E19" t="n">
-        <v>19.66679437431299</v>
+        <v>79.21284997217968</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.0562169861557</v>
+        <v>111.5571236094487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1337552109112935</v>
+        <v>0.1510473483173407</v>
       </c>
       <c r="D20" t="n">
-        <v>2798.285998572062</v>
+        <v>2679.042334882415</v>
       </c>
       <c r="E20" t="n">
-        <v>1.69116289884083</v>
+        <v>16.65395137748631</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.4428489125159</v>
+        <v>110.0241324744551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1270674503657288</v>
+        <v>0.1434949809014737</v>
       </c>
       <c r="D21" t="n">
-        <v>446.3710373342606</v>
+        <v>461.5173145770614</v>
       </c>
       <c r="E21" t="n">
-        <v>1.69116289884083</v>
+        <v>16.65395137748631</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.3577812287609</v>
+        <v>92.49516011174956</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>420.1980300048218</v>
+        <v>387.2772353878954</v>
       </c>
       <c r="E22" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.33515869259116</v>
+        <v>56.08360617593146</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>156.1217093528443</v>
+        <v>628.8185712929181</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.864808512416</v>
+        <v>96.66823991688273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1081988123608385</v>
+        <v>0.0899380355939592</v>
       </c>
       <c r="D25" t="n">
-        <v>2765.767529968015</v>
+        <v>2608.251621395883</v>
       </c>
       <c r="E25" t="n">
-        <v>12.37696358846831</v>
+        <v>43.36602919042912</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.0476077832025</v>
+        <v>501.4417587894135</v>
       </c>
       <c r="C26" t="n">
-        <v>7.511900086107367</v>
+        <v>7.171942238359355</v>
       </c>
       <c r="D26" t="n">
-        <v>3407.891519186979</v>
+        <v>3412.869238805091</v>
       </c>
       <c r="E26" t="n">
-        <v>60.9907904894805</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F26" t="n">
-        <v>6.76471496913929</v>
+        <v>6.791283359245337</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.2444209720873</v>
+        <v>193.624412334878</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5326238952455116</v>
+        <v>0.5120311659642037</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.325087037243</v>
+        <v>2841.465655142044</v>
       </c>
       <c r="E27" t="n">
-        <v>60.9907904894805</v>
+        <v>58.12363170687595</v>
       </c>
       <c r="F27" t="n">
-        <v>6.993235278749989</v>
+        <v>7.019770798756573</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.2608417731038</v>
+        <v>174.1533553706063</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6022151965074855</v>
+        <v>0.5800100673741381</v>
       </c>
       <c r="D28" t="n">
-        <v>2795.029738830257</v>
+        <v>2794.021348080541</v>
       </c>
       <c r="E28" t="n">
-        <v>15.63752407688027</v>
+        <v>15.45530512937272</v>
       </c>
       <c r="F28" t="n">
-        <v>6.845996221772642</v>
+        <v>6.860368960522257</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.2973075565381</v>
+        <v>189.0357721220024</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5326238952455116</v>
+        <v>0.5120311659642037</v>
       </c>
       <c r="D29" t="n">
-        <v>2828.693884202238</v>
+        <v>2831.499946559993</v>
       </c>
       <c r="E29" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F29" t="n">
-        <v>6.974610111410451</v>
+        <v>6.998314892765122</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.1012645455638</v>
+        <v>125.7599847877772</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2476555723838093</v>
+        <v>0.2377214288257647</v>
       </c>
       <c r="D30" t="n">
-        <v>2707.256441681646</v>
+        <v>2709.581771180916</v>
       </c>
       <c r="E30" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F30" t="n">
-        <v>7.03360787378581</v>
+        <v>7.057744142538474</v>
       </c>
       <c r="G30" t="n">
-        <v>99.59673819503958</v>
+        <v>99.79004122743299</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.139763239077</v>
+        <v>109.9168701446601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1489552623992681</v>
+        <v>0.1429787941252618</v>
       </c>
       <c r="D31" t="n">
-        <v>2635.426923317121</v>
+        <v>2637.797219148189</v>
       </c>
       <c r="E31" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F31" t="n">
-        <v>7.076049624288276</v>
+        <v>7.100295108174884</v>
       </c>
       <c r="G31" t="n">
-        <v>97.42373610936561</v>
+        <v>97.61700110899631</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.139763239077</v>
+        <v>109.9168701446601</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1489552623992681</v>
+        <v>0.1429787941252618</v>
       </c>
       <c r="D32" t="n">
-        <v>2635.426923317121</v>
+        <v>2637.797219148189</v>
       </c>
       <c r="E32" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F32" t="n">
-        <v>7.076049624288276</v>
+        <v>7.100295108174884</v>
       </c>
       <c r="G32" t="n">
-        <v>97.42373610936561</v>
+        <v>97.61700110899631</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.42610084535727</v>
+        <v>43.58681078953651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009315412724796917</v>
+        <v>0.008919173823001312</v>
       </c>
       <c r="D33" t="n">
-        <v>2298.607608724993</v>
+        <v>2298.660994075298</v>
       </c>
       <c r="E33" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F33" t="n">
-        <v>7.283242852563406</v>
+        <v>7.301054267056558</v>
       </c>
       <c r="G33" t="n">
-        <v>88.19400105833812</v>
+        <v>88.26846796935666</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.4261008443425</v>
+        <v>43.5868107907404</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009315412724796917</v>
+        <v>0.008919173823001312</v>
       </c>
       <c r="D34" t="n">
-        <v>186.035462974506</v>
+        <v>182.5267334346101</v>
       </c>
       <c r="E34" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.55670339559958</v>
+        <v>43.98646131287984</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>187.182645379472</v>
+        <v>184.799839417067</v>
       </c>
       <c r="E35" t="n">
-        <v>76.62831456636076</v>
+        <v>73.57893683624867</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.5186745153856</v>
+        <v>497.5009221113793</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3520.21325398563</v>
+        <v>3462.728630370272</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57365293566734</v>
+        <v>7.232552431538934</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>538.5186745153856</v>
+        <v>512.5009221113793</v>
       </c>
       <c r="C42" t="n">
-        <v>3.787613687568602</v>
+        <v>6.779972366150977</v>
       </c>
       <c r="D42" t="n">
-        <v>3536.167527506467</v>
+        <v>3444.104945950647</v>
       </c>
       <c r="E42" t="n">
-        <v>41.23743798382608</v>
+        <v>8.518827025100762</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44174090899794</v>
+        <v>8.520317592240227</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5221,7 +4891,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07472066051638</v>
+        <v>3.389006612379401</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5230,16 +4900,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -5255,16 +4925,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.18278797812695</v>
+        <v>79.6076209778164</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1314.945609121741</v>
+        <v>1284.55212076094</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5298,16 +4968,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.18278797812695</v>
+        <v>79.6076209778164</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.374312092277</v>
+        <v>1228.492527513113</v>
       </c>
       <c r="E8" t="n">
-        <v>357336.4842549912</v>
+        <v>65647.03030455291</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5316,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1712199287687901</v>
+        <v>0.1734012674063537</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03639132349792378</v>
+        <v>0.0241149672778259</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09894212539365227</v>
+        <v>0.1002026461902429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6914082478657125</v>
+        <v>0.7002167757996087</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002038374473921336</v>
+        <v>0.002064343325968881</v>
       </c>
     </row>
     <row r="9">
@@ -5341,16 +5011,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.18278797812695</v>
+        <v>79.6076209778164</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1287.374312092277</v>
+        <v>1228.492527513113</v>
       </c>
       <c r="E9" t="n">
-        <v>23.73392251770772</v>
+        <v>3.477710437816175</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5359,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1712199287687901</v>
+        <v>0.1734012674063537</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03639132349792378</v>
+        <v>0.0241149672778259</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09894212539365227</v>
+        <v>0.1002026461902429</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6914082478657125</v>
+        <v>0.7002167757996087</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002038374473921336</v>
+        <v>0.002064343325968881</v>
       </c>
     </row>
     <row r="10">
@@ -5384,13 +5054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.18278797812695</v>
+        <v>79.6076209778164</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1287.374312092277</v>
+        <v>1228.492527513113</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -5402,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1712199287687901</v>
+        <v>0.1734012674063537</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03639132349792378</v>
+        <v>0.0241149672778259</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09894212539365227</v>
+        <v>0.1002026461902429</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6914082478657125</v>
+        <v>0.7002167757996087</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002038374473921336</v>
+        <v>0.002064343325968881</v>
       </c>
     </row>
     <row r="11">
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>947.3852286745408</v>
+        <v>141.665104263255</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>947.3852286745408</v>
+        <v>141.665104263255</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5487,25 +5157,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1189.281960837511</v>
+        <v>1187.886794598148</v>
       </c>
       <c r="E13" t="n">
-        <v>971.1191545992567</v>
+        <v>145.1428177832692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7483710044874764</v>
+        <v>0.7489523106130447</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1676797843374576</v>
+        <v>0.1678060459372712</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0168959431798386</v>
+        <v>0.01691105938810014</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009594500057531747</v>
+        <v>0.009601952700167239</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05745876793769566</v>
+        <v>0.05672863136141683</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.4792773259386</v>
+        <v>315.431694860888</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>693.1133441047123</v>
+        <v>691.8806720642535</v>
       </c>
       <c r="E14" t="n">
-        <v>971.1191545992567</v>
+        <v>145.1428177832692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7483710044874764</v>
+        <v>0.7489523106130447</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1676797843374576</v>
+        <v>0.1678060459372712</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0168959431798386</v>
+        <v>0.01691105938810014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009594500057531747</v>
+        <v>0.009601952700167239</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05745876793769566</v>
+        <v>0.05672863136141683</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5573,25 +5243,25 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>432.9231568623727</v>
+        <v>431.8484249431024</v>
       </c>
       <c r="E15" t="n">
-        <v>971.1191545992567</v>
+        <v>145.1428177832692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7483710044874764</v>
+        <v>0.7489523106130447</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1676797843374576</v>
+        <v>0.1678060459372712</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0168959431798386</v>
+        <v>0.01691105938810014</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009594500057531747</v>
+        <v>0.009601952700167239</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05745876793769566</v>
+        <v>0.05672863136141683</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>

--- a/resdataTemp-10.xlsx
+++ b/resdataTemp-10.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>427.9836631477531</v>
+        <v>441.6935085719268</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6667659978491</v>
+        <v>13.64212296287072</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.7741650564315</v>
+        <v>540.7915111495577</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.3601498844547</v>
+        <v>964.3607579083323</v>
       </c>
       <c r="E5" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.784393742396</v>
+        <v>465.3089471865653</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>940.49196283076</v>
+        <v>877.951503617692</v>
       </c>
       <c r="E6" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.701921761023</v>
+        <v>290.7699684854184</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.7478524504151</v>
+        <v>683.9269921756586</v>
       </c>
       <c r="E7" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.2506622902675</v>
+        <v>225.0859525590408</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.7175070969444</v>
+        <v>612.9022629804614</v>
       </c>
       <c r="E8" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.2968505258764</v>
+        <v>224.1655579176839</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.6842768949191</v>
+        <v>611.9139751664309</v>
       </c>
       <c r="E9" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.9960918431694</v>
+        <v>165.6343627473649</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>562.9053417544663</v>
+        <v>549.4199281696549</v>
       </c>
       <c r="E10" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.545745781412</v>
+        <v>101.5573557622705</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.0870332370119</v>
+        <v>481.6986468507215</v>
       </c>
       <c r="E11" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.05903299435049</v>
+        <v>12.931491725058</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6077330034986189</v>
+        <v>0.7106312378127234</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038312</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389010345476287</v>
+        <v>4.762715414389616</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944186</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.6076209778164</v>
+        <v>3.024093273067933</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1284.55212076094</v>
+        <v>1067.600174241239</v>
       </c>
       <c r="E7" t="n">
         <v>68582.99907187685</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.6076209778164</v>
+        <v>3.024093273067933</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.492527513113</v>
+        <v>949.91285063971</v>
       </c>
       <c r="E8" t="n">
-        <v>65647.03030455291</v>
+        <v>63084.93331006043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1229,22 +1229,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1734012674063537</v>
+        <v>0.1776861634230223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0241149672778259</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1002026461902429</v>
+        <v>0.1026787406614215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7002167757996087</v>
+        <v>0.7175197408719294</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002064343325968881</v>
+        <v>0.002115355043626928</v>
       </c>
     </row>
     <row r="9">
@@ -1254,16 +1254,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.6076209778164</v>
+        <v>3.024093273067933</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1228.492527513113</v>
+        <v>949.91285063971</v>
       </c>
       <c r="E9" t="n">
-        <v>3.477710437816175</v>
+        <v>3.299787035420863</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,22 +1272,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1734012674063537</v>
+        <v>0.1776861634230223</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0241149672778259</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1002026461902429</v>
+        <v>0.1026787406614215</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7002167757996087</v>
+        <v>0.7175197408719294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002064343325968881</v>
+        <v>0.002115355043626928</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.6076209778164</v>
+        <v>3.024093273067933</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1228.492527513113</v>
+        <v>949.91285063971</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -1315,22 +1315,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1734012674063537</v>
+        <v>0.1776861634230223</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0241149672778259</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1002026461902429</v>
+        <v>0.1026787406614215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7002167757996087</v>
+        <v>0.7175197408719294</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002064343325968881</v>
+        <v>0.002115355043626928</v>
       </c>
     </row>
     <row r="11">
@@ -1349,7 +1349,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>141.665104263255</v>
+        <v>138.6487506961013</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>141.665104263255</v>
+        <v>138.6487506961013</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1400,25 +1400,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1187.886794598148</v>
+        <v>1186.184900656311</v>
       </c>
       <c r="E13" t="n">
-        <v>145.1428177832692</v>
+        <v>141.9485404382202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7489523106130447</v>
+        <v>0.7498070672428396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1678060459372712</v>
+        <v>0.1676975991719151</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01691105938810014</v>
+        <v>0.01708028191080188</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009601952700167239</v>
+        <v>0.009612911118497944</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05672863136141683</v>
+        <v>0.05580214055594534</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1437,31 +1437,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.431694860888</v>
+        <v>315.3936026521864</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>691.8806720642535</v>
+        <v>690.3964243700559</v>
       </c>
       <c r="E14" t="n">
-        <v>145.1428177832692</v>
+        <v>141.9485404382202</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7489523106130447</v>
+        <v>0.7498070672428396</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1678060459372712</v>
+        <v>0.1676975991719151</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01691105938810014</v>
+        <v>0.01708028191080188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009601952700167239</v>
+        <v>0.009612911118497944</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05672863136141683</v>
+        <v>0.05580214055594534</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>431.8484249431024</v>
+        <v>433.5527315241669</v>
       </c>
       <c r="E15" t="n">
-        <v>145.1428177832692</v>
+        <v>141.9485404382202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7489523106130447</v>
+        <v>0.7498070672428396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1678060459372712</v>
+        <v>0.1676975991719151</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01691105938810014</v>
+        <v>0.01708028191080188</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009601952700167239</v>
+        <v>0.009612911118497944</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05672863136141683</v>
+        <v>0.05580214055594534</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5720140204227365</v>
+        <v>0.6370468121098128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.633453486839503</v>
+        <v>0.6721791562717013</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9030087169883504</v>
+        <v>0.947733660239105</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.05106737275639</v>
+        <v>52.98498862446562</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.97772250737968</v>
+        <v>33.26376651926252</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.839530709738019</v>
+        <v>0.8492921113805505</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.5906318014283</v>
+        <v>12.35167821764882</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8361935040518482</v>
+        <v>0.8175650581806845</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.384118685498779</v>
+        <v>4.985284596669432</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.81439212980968</v>
+        <v>0.8085096643648753</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.09859437844964</v>
+        <v>2.384259290884858</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8154840359206896</v>
+        <v>0.474456757576345</v>
       </c>
     </row>
     <row r="12">
@@ -1706,16 +1706,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07602211487298929</v>
+        <v>0.1512491718259022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07721543705235669</v>
+        <v>0.1683193851752995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9845455491165809</v>
+        <v>0.8985843886512582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47927.12814011989</v>
+        <v>46906.65690494375</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71991.72626232299</v>
+        <v>70376.45057492299</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11247.63928193785</v>
+        <v>41430.8049675158</v>
       </c>
       <c r="C2" t="n">
-        <v>11361.25179993722</v>
+        <v>41849.29794698566</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125138.4160475298</v>
+        <v>91117.01416710748</v>
       </c>
       <c r="C3" t="n">
-        <v>126402.4404520503</v>
+        <v>92037.38804758331</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10392.79223277757</v>
+        <v>39133.12345471172</v>
       </c>
       <c r="C4" t="n">
-        <v>10497.76993209856</v>
+        <v>39528.40753001184</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>535.5967845891576</v>
+        <v>512.8294218061172</v>
       </c>
       <c r="C5" t="n">
-        <v>541.0068531203611</v>
+        <v>518.009516975876</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47793.6335584042</v>
+        <v>32895.1755413391</v>
       </c>
       <c r="C6" t="n">
-        <v>48276.39753374162</v>
+        <v>33227.45004175667</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47737.61237741191</v>
+        <v>37171.63716450283</v>
       </c>
       <c r="C7" t="n">
-        <v>48219.81048223426</v>
+        <v>37547.10824697255</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>43.65192036984607</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -1897,11 +1897,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>80.83020558962365</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.08842545140678</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.1557903465</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37741.81306167926</v>
+        <v>36458.58732023647</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,6 +2049,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2059,6 +2064,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2067,13 +2073,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88098436.90592502</v>
+        <v>73219221.75912246</v>
       </c>
       <c r="C3" t="n">
-        <v>79.6076209778164</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
+        <v>3.024093273067933</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>23.54273504191962</v>
       </c>
     </row>
   </sheetData>
@@ -2250,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>313.2422152547856</v>
+        <v>515.7286169355943</v>
       </c>
       <c r="C3" t="n">
-        <v>5.648210870621944</v>
+        <v>6.31587454118099</v>
       </c>
       <c r="D3" t="n">
-        <v>2944.159328171233</v>
+        <v>3456.971781126957</v>
       </c>
       <c r="E3" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2271,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.6035193754063</v>
+        <v>282.7922294228541</v>
       </c>
       <c r="C4" t="n">
-        <v>6.094215073697315</v>
+        <v>6.691222675785147</v>
       </c>
       <c r="D4" t="n">
-        <v>2783.55551709957</v>
+        <v>2776.547147633888</v>
       </c>
       <c r="E4" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2292,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.4295679453508</v>
+        <v>282.2451341377596</v>
       </c>
       <c r="C5" t="n">
-        <v>6.094215073697315</v>
+        <v>6.691222675785147</v>
       </c>
       <c r="D5" t="n">
-        <v>860.5297769355939</v>
+        <v>1248.639928996348</v>
       </c>
       <c r="E5" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2313,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.0116777131241</v>
+        <v>162.4126696814571</v>
       </c>
       <c r="C6" t="n">
-        <v>6.094215073697315</v>
+        <v>6.691222675785147</v>
       </c>
       <c r="D6" t="n">
-        <v>713.3645688945694</v>
+        <v>689.4588825999288</v>
       </c>
       <c r="E6" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2334,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.031350981707</v>
+        <v>155.2930310772542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6842635446631106</v>
+        <v>0.5476703768085152</v>
       </c>
       <c r="D7" t="n">
-        <v>693.0138673586256</v>
+        <v>655.0582346072335</v>
       </c>
       <c r="E7" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2355,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9307695559539</v>
+        <v>168.4000609495658</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6741420018345885</v>
+        <v>0.5415472875364271</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.419351132578</v>
+        <v>2783.5723410928</v>
       </c>
       <c r="E8" t="n">
-        <v>19.90334396711931</v>
+        <v>14.18142429997125</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2376,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.0313508468963</v>
+        <v>155.2930309601196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6842635446631106</v>
+        <v>0.5476703768085152</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.790375409147</v>
+        <v>2752.146854712702</v>
       </c>
       <c r="E9" t="n">
-        <v>19.90334396711931</v>
+        <v>14.18142429997125</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2397,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7847665240279</v>
+        <v>155.2930310772542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6842635446631106</v>
+        <v>0.5476703768085152</v>
       </c>
       <c r="D10" t="n">
-        <v>691.9418392780194</v>
+        <v>677.0168009633944</v>
       </c>
       <c r="E10" t="n">
-        <v>79.14527750656575</v>
+        <v>71.42847292084443</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2418,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.7847665240279</v>
+        <v>155.2930310772542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6842635446631106</v>
+        <v>0.5476703768085152</v>
       </c>
       <c r="D11" t="n">
-        <v>691.9418392780194</v>
+        <v>677.0168009633944</v>
       </c>
       <c r="E11" t="n">
-        <v>79.16619801187342</v>
+        <v>71.7631288868353</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2439,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.32254680698844</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6842635446631106</v>
+        <v>0.5476703768085152</v>
       </c>
       <c r="D12" t="n">
-        <v>253.0978365053766</v>
+        <v>251.6235098255961</v>
       </c>
       <c r="E12" t="n">
-        <v>79.14527750656575</v>
+        <v>71.76791593658008</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2460,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.32350901238277</v>
+        <v>59.48785363343694</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>253.1018621580309</v>
+        <v>249.6058202598611</v>
       </c>
       <c r="E13" t="n">
-        <v>79.13893775388385</v>
+        <v>71.42611643263363</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2481,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.99773634995944</v>
+        <v>58.8082420200904</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>251.7389254850932</v>
+        <v>246.762825145203</v>
       </c>
       <c r="E14" t="n">
-        <v>70.31970624108956</v>
+        <v>59.62441780373456</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2502,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.65504757062689</v>
+        <v>96.16881221710213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08353985552580087</v>
+        <v>0.08831407603724911</v>
       </c>
       <c r="D15" t="n">
-        <v>396.6358880302786</v>
+        <v>403.0134433755067</v>
       </c>
       <c r="E15" t="n">
-        <v>65.8864597227082</v>
+        <v>55.17747757165549</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2523,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.58079688762757</v>
+        <v>61.76507347980208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08354581448426923</v>
+        <v>0.08831418976681886</v>
       </c>
       <c r="D16" t="n">
-        <v>262.0358752372101</v>
+        <v>258.6252618302136</v>
       </c>
       <c r="E16" t="n">
-        <v>65.88213236043042</v>
+        <v>55.17816390027806</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2553,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>629.9434846125162</v>
+        <v>581.7556287869781</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2574,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.35455633087359</v>
+        <v>73.28428810367889</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2586,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.32405073071766</v>
+        <v>78.60518292069392</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>332.1298004095149</v>
+        <v>329.1199008889455</v>
       </c>
       <c r="E19" t="n">
-        <v>79.35455633087359</v>
+        <v>73.28428810367889</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2607,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.7051234570125</v>
+        <v>111.0493192832814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.151829855411826</v>
+        <v>0.1485145616853108</v>
       </c>
       <c r="D20" t="n">
-        <v>2472.503768595481</v>
+        <v>2691.343917601151</v>
       </c>
       <c r="E20" t="n">
-        <v>19.15010412877916</v>
+        <v>14.1100594444432</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2628,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.178049190535</v>
+        <v>109.5214031221005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1442383626412347</v>
+        <v>0.1410888336010453</v>
       </c>
       <c r="D21" t="n">
-        <v>462.1686874021685</v>
+        <v>459.390015475868</v>
       </c>
       <c r="E21" t="n">
-        <v>19.15010412877916</v>
+        <v>14.1100594444432</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2649,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.93157731281634</v>
+        <v>93.58178253941762</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>384.917514208762</v>
+        <v>391.8269234925416</v>
       </c>
       <c r="E22" t="n">
-        <v>629.9434846125162</v>
+        <v>581.7556287869781</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2679,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>629.9434846125162</v>
+        <v>581.7556287869781</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2691,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.2286618139886</v>
+        <v>56.13810537913624</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2700,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>629.9434846125162</v>
+        <v>581.7556287869781</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2712,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.05166142031482</v>
+        <v>97.57866556256897</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08793669002715881</v>
+        <v>0.09296218530236749</v>
       </c>
       <c r="D25" t="n">
-        <v>2404.932261505073</v>
+        <v>2626.956308939296</v>
       </c>
       <c r="E25" t="n">
-        <v>46.73887134586064</v>
+        <v>41.06737929276033</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2733,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307.6546238878319</v>
+        <v>512.830328415958</v>
       </c>
       <c r="C26" t="n">
-        <v>5.151565530096109</v>
+        <v>5.691372038698633</v>
       </c>
       <c r="D26" t="n">
-        <v>2944.159328171233</v>
+        <v>3456.971781126957</v>
       </c>
       <c r="E26" t="n">
-        <v>50.42267602318731</v>
+        <v>45.44258263898797</v>
       </c>
       <c r="F26" t="n">
-        <v>6.231198180757169</v>
+        <v>6.949347330957006</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2758,22 +2765,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.9066809901717</v>
+        <v>202.0575306174369</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4261667232103457</v>
+        <v>0.3991381166026927</v>
       </c>
       <c r="D27" t="n">
-        <v>2545.846541099775</v>
+        <v>2865.281238101027</v>
       </c>
       <c r="E27" t="n">
-        <v>50.42267602318731</v>
+        <v>45.44258263898797</v>
       </c>
       <c r="F27" t="n">
-        <v>6.408742270123816</v>
+        <v>7.18245730159173</v>
       </c>
       <c r="G27" t="n">
-        <v>90.82569671910143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2783,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.6891316272817</v>
+        <v>165.6565094689856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5389049167209452</v>
+        <v>0.4563727198522489</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.419351132578</v>
+        <v>2783.5723410928</v>
       </c>
       <c r="E28" t="n">
-        <v>19.90334396711931</v>
+        <v>14.18142429997125</v>
       </c>
       <c r="F28" t="n">
-        <v>6.871331288841668</v>
+        <v>6.943287615756676</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2808,22 +2815,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.9066809901717</v>
+        <v>192.8068189687049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4261667232103457</v>
+        <v>0.3991381166026927</v>
       </c>
       <c r="D29" t="n">
-        <v>2613.366311164106</v>
+        <v>2845.846976684437</v>
       </c>
       <c r="E29" t="n">
-        <v>70.32601999030662</v>
+        <v>59.62400693895923</v>
       </c>
       <c r="F29" t="n">
-        <v>6.56986550983634</v>
+        <v>7.141157133523392</v>
       </c>
       <c r="G29" t="n">
-        <v>94.00102333440239</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2833,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.7056712503102</v>
+        <v>111.049120671381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1517895933872452</v>
+        <v>0.1485053497978045</v>
       </c>
       <c r="D30" t="n">
-        <v>2472.505860575657</v>
+        <v>2691.343081837941</v>
       </c>
       <c r="E30" t="n">
-        <v>70.32601999030662</v>
+        <v>59.62400693895923</v>
       </c>
       <c r="F30" t="n">
-        <v>6.644416001865269</v>
+        <v>7.222922225691658</v>
       </c>
       <c r="G30" t="n">
-        <v>90.06127337872853</v>
+        <v>99.94123601850299</v>
       </c>
     </row>
     <row r="31">
@@ -2858,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.05629130120519</v>
+        <v>97.57881446776241</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08795157912970736</v>
+        <v>0.0929626867295385</v>
       </c>
       <c r="D31" t="n">
-        <v>2404.952536898052</v>
+        <v>2626.957151845601</v>
       </c>
       <c r="E31" t="n">
-        <v>51.17843161345906</v>
+        <v>45.51390866006406</v>
       </c>
       <c r="F31" t="n">
-        <v>6.686015799106482</v>
+        <v>7.262596556365734</v>
       </c>
       <c r="G31" t="n">
-        <v>88.33788162817649</v>
+        <v>98.02116653337511</v>
       </c>
     </row>
     <row r="32">
@@ -2883,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.71180650695794</v>
+        <v>68.12668182849848</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008086052124283264</v>
+        <v>0.008700720456193632</v>
       </c>
       <c r="D32" t="n">
-        <v>2404.952536898052</v>
+        <v>2626.957151845601</v>
       </c>
       <c r="E32" t="n">
-        <v>4.437573880659144</v>
+        <v>4.446253903456501</v>
       </c>
       <c r="F32" t="n">
-        <v>7.678498024278962</v>
+        <v>8.343505637917774</v>
       </c>
       <c r="G32" t="n">
-        <v>92.85494709383103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2908,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.39948545190384</v>
+        <v>64.40403083397189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002549980513413055</v>
+        <v>0.002575626936486265</v>
       </c>
       <c r="D33" t="n">
-        <v>2400.054594315026</v>
+        <v>2621.134363081158</v>
       </c>
       <c r="E33" t="n">
-        <v>4.437573880659144</v>
+        <v>4.446253903456501</v>
       </c>
       <c r="F33" t="n">
-        <v>8.159862183165369</v>
+        <v>8.887492010485975</v>
       </c>
       <c r="G33" t="n">
-        <v>94.28941724784461</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2933,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.39948545190384</v>
+        <v>21.56288946507158</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002549980513413055</v>
+        <v>0.002575626936486265</v>
       </c>
       <c r="D34" t="n">
-        <v>89.7696356683909</v>
+        <v>90.45324241248126</v>
       </c>
       <c r="E34" t="n">
-        <v>4.437573880659144</v>
+        <v>4.446253903456501</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2954,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.41981112572597</v>
+        <v>23.58334316855468</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>98.86597627418203</v>
+        <v>99.54957779706066</v>
       </c>
       <c r="E35" t="n">
-        <v>4.437573880659144</v>
+        <v>4.446253903456501</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3059,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>298.2426525228359</v>
+        <v>500.7327898223684</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3020.100249864469</v>
+        <v>3469.857823264741</v>
       </c>
       <c r="E40" t="n">
-        <v>7.23256039842187</v>
+        <v>10.16421414618806</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3089,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>8.819231512794294</v>
+        <v>11.80169862889908</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3101,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>313.2426525228359</v>
+        <v>515.7327898223684</v>
       </c>
       <c r="C42" t="n">
-        <v>5.648268236448593</v>
+        <v>6.315893557785028</v>
       </c>
       <c r="D42" t="n">
-        <v>2944.158864919954</v>
+        <v>3456.979834842678</v>
       </c>
       <c r="E42" t="n">
-        <v>8.819231512794294</v>
+        <v>11.80169862889908</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3212,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3255,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3298,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3341,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520326977636804</v>
+        <v>11.97396540444242</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3381,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038312</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389010345476287</v>
+        <v>4.762715414389616</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3399,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944186</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3630,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.205614907873494</v>
+        <v>1.969335568227366</v>
       </c>
       <c r="C2" t="n">
-        <v>1.427213025543573</v>
+        <v>2.244959578363231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8447336776612726</v>
+        <v>0.8772254018324828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293813184420602</v>
+        <v>0.1955108227582071</v>
       </c>
     </row>
     <row r="3">
@@ -3672,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>118.8911091550525</v>
+        <v>125.5696394800631</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.75492112782938</v>
+        <v>31.30067123240439</v>
       </c>
     </row>
     <row r="6">
@@ -3687,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.202147744903751</v>
+        <v>6.216318113864557</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3699,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.4691596204954</v>
+        <v>39.05643263052471</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3712,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.08399661839696</v>
+        <v>26.88794639816349</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8426087136461621</v>
+        <v>0.8493769984577765</v>
       </c>
     </row>
     <row r="9">
@@ -3727,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.906154863926869</v>
+        <v>9.21214129842369</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8307820478565826</v>
+        <v>0.8310325985002277</v>
       </c>
     </row>
     <row r="10">
@@ -3742,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.457273156096173</v>
+        <v>2.930455336664628</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8147570417653306</v>
+        <v>0.8140395865460741</v>
       </c>
     </row>
     <row r="11">
@@ -3757,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02173498207540314</v>
+        <v>0.02588959727290926</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03339122886556196</v>
+        <v>0.03395232368569347</v>
       </c>
     </row>
     <row r="12">
@@ -3772,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04036568348183788</v>
+        <v>0.04044461671083568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.045229414410321</v>
+        <v>0.04531822988897055</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924653128523977</v>
+        <v>0.8924579978062868</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3849,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9518.214244565233</v>
+        <v>38951.76024915082</v>
       </c>
       <c r="C2" t="n">
-        <v>9614.357822793165</v>
+        <v>39345.21237287962</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3865,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113925.151350502</v>
+        <v>87462.81071618192</v>
       </c>
       <c r="C3" t="n">
-        <v>115075.9104550526</v>
+        <v>88346.27345068881</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3881,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8718.286431282131</v>
+        <v>32016.68902345626</v>
       </c>
       <c r="C4" t="n">
-        <v>8806.34993058801</v>
+        <v>32340.08992268309</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3897,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>449.7175007093392</v>
+        <v>445.5026293803312</v>
       </c>
       <c r="C5" t="n">
-        <v>454.2601017266053</v>
+        <v>450.0026559397285</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3913,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41252.90351337862</v>
+        <v>28171.20869287788</v>
       </c>
       <c r="C6" t="n">
-        <v>41669.59950846325</v>
+        <v>28455.7663564423</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3929,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34741.23205744118</v>
+        <v>30527.5532737252</v>
       </c>
       <c r="C7" t="n">
-        <v>35092.15359337493</v>
+        <v>30835.91239770222</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3945,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.11314487720374</v>
+        <v>31.17807221388225</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3959,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.16905915366056</v>
+        <v>91.20571388264345</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3973,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.779589758553895</v>
+        <v>7.887412111453247</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3987,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21373.71622891293</v>
+        <v>34608.79345704673</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3999,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2263.497186104596</v>
+        <v>3074.156124691488</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4011,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19368.32583021923</v>
+        <v>22647.67139492716</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4023,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5604.176065973624</v>
+        <v>7875.77877122556</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4035,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4048.763556579153</v>
+        <v>5689.893695921557</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4047,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.1557903465</v>
+        <v>21121.08983187142</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4059,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26945.59259900387</v>
+        <v>37760.91842371002</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4085,7 +4092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,6 +4116,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4119,6 +4131,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4127,12 +4140,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4195,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.717681450893713</v>
+        <v>0.7579961335268812</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4333,7 +4343,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>427.9836631477531</v>
+        <v>441.6935085719268</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -4367,7 +4377,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6667659978491</v>
+        <v>13.64212296287072</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -4392,31 +4402,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.7741650564315</v>
+        <v>540.7915111495577</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.3601498844547</v>
+        <v>964.3607579083323</v>
       </c>
       <c r="E5" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="6">
@@ -4426,31 +4436,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.784393742396</v>
+        <v>465.3089471865653</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>940.49196283076</v>
+        <v>877.951503617692</v>
       </c>
       <c r="E6" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="7">
@@ -4460,31 +4470,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.701921761023</v>
+        <v>290.7699684854184</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.7478524504151</v>
+        <v>683.9269921756586</v>
       </c>
       <c r="E7" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="8">
@@ -4494,31 +4504,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.2506622902675</v>
+        <v>225.0859525590408</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.7175070969444</v>
+        <v>612.9022629804614</v>
       </c>
       <c r="E8" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="9">
@@ -4528,31 +4538,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.2968505258764</v>
+        <v>224.1655579176839</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.6842768949191</v>
+        <v>611.9139751664309</v>
       </c>
       <c r="E9" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="10">
@@ -4562,31 +4572,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.9960918431694</v>
+        <v>165.6343627473649</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>562.9053417544663</v>
+        <v>549.4199281696549</v>
       </c>
       <c r="E10" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="11">
@@ -4596,31 +4606,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.545745781412</v>
+        <v>101.5573557622705</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.0870332370119</v>
+        <v>481.6986468507215</v>
       </c>
       <c r="E11" t="n">
-        <v>439.6504291456022</v>
+        <v>455.3356315347975</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783993315379012</v>
+        <v>0.7781542565806981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1206109694675427</v>
+        <v>0.1202126653757787</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03174153513871004</v>
+        <v>0.03195319706812531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06268997334688788</v>
+        <v>0.06311418729754038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006558190508958181</v>
+        <v>0.006565693677857401</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4649,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.05903299435049</v>
+        <v>12.931491725058</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4663,7 +4673,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6077330034986189</v>
+        <v>0.7106312378127234</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4746,16 +4756,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.1226042953097</v>
+        <v>504.4800014123524</v>
       </c>
       <c r="C3" t="n">
-        <v>6.575403399847595</v>
+        <v>7.67285960088725</v>
       </c>
       <c r="D3" t="n">
-        <v>2940.745633108847</v>
+        <v>3414.413734653181</v>
       </c>
       <c r="E3" t="n">
-        <v>66.63594634397059</v>
+        <v>63.12675434888783</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4767,16 +4777,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.3462300398637</v>
+        <v>295.3841570951976</v>
       </c>
       <c r="C4" t="n">
-        <v>7.053681847300848</v>
+        <v>8.043220764239049</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.929127367796</v>
+        <v>2758.03902461597</v>
       </c>
       <c r="E4" t="n">
-        <v>66.63594634397059</v>
+        <v>63.12675434888783</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4788,16 +4798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.8652515432317</v>
+        <v>294.5169295346554</v>
       </c>
       <c r="C5" t="n">
-        <v>7.053681847300848</v>
+        <v>8.043220764239049</v>
       </c>
       <c r="D5" t="n">
-        <v>894.3209850052853</v>
+        <v>1314.515829787674</v>
       </c>
       <c r="E5" t="n">
-        <v>66.63594634397059</v>
+        <v>63.12675434888783</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4809,16 +4819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.6578860400251</v>
+        <v>163.4205302440485</v>
       </c>
       <c r="C6" t="n">
-        <v>7.053681847300848</v>
+        <v>8.043220764239049</v>
       </c>
       <c r="D6" t="n">
-        <v>738.4457977739288</v>
+        <v>694.6017328311347</v>
       </c>
       <c r="E6" t="n">
-        <v>66.63594634397059</v>
+        <v>63.12675434888783</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4830,16 +4840,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.4591883916913</v>
+        <v>162.0784429875872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403912270219135</v>
+        <v>0.6516114358505281</v>
       </c>
       <c r="D7" t="n">
-        <v>729.8616318423753</v>
+        <v>684.5101826052353</v>
       </c>
       <c r="E7" t="n">
-        <v>66.63594634397059</v>
+        <v>63.12675434888783</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4851,16 +4861,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.3319336701273</v>
+        <v>174.9929102495527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8297524514320309</v>
+        <v>0.6447003260505848</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.62311016077</v>
+        <v>2791.436919482449</v>
       </c>
       <c r="E8" t="n">
-        <v>22.95522402867049</v>
+        <v>16.16153181385486</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4872,16 +4882,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172.4591882384717</v>
+        <v>162.0784428568525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8403912270219135</v>
+        <v>0.6516114358505281</v>
       </c>
       <c r="D9" t="n">
-        <v>2770.302037387951</v>
+        <v>2759.705365511231</v>
       </c>
       <c r="E9" t="n">
-        <v>22.95522402867049</v>
+        <v>16.16153181385486</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4893,16 +4903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.0434105568476</v>
+        <v>162.0784429875872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8403912270219135</v>
+        <v>0.6516114358505281</v>
       </c>
       <c r="D10" t="n">
-        <v>719.2995761001052</v>
+        <v>692.6528213112704</v>
       </c>
       <c r="E10" t="n">
-        <v>89.59117037264107</v>
+        <v>79.28828616274269</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4914,16 +4924,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0434105568476</v>
+        <v>162.0784429875872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8403912270219135</v>
+        <v>0.6516114358505281</v>
       </c>
       <c r="D11" t="n">
-        <v>719.2995761001052</v>
+        <v>692.6528213112704</v>
       </c>
       <c r="E11" t="n">
-        <v>102.1277008521887</v>
+        <v>84.30050744792985</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4938,13 +4948,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8403912270219135</v>
+        <v>0.6516114358505281</v>
       </c>
       <c r="D12" t="n">
-        <v>251.8692986565362</v>
+        <v>251.7107879852819</v>
       </c>
       <c r="E12" t="n">
-        <v>102.1243487441948</v>
+        <v>84.30079480163049</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4956,16 +4966,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.38991028055932</v>
+        <v>53.32512094097171</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>186.4856794438429</v>
+        <v>223.8322273843831</v>
       </c>
       <c r="E13" t="n">
-        <v>82.19715756811694</v>
+        <v>73.40735421296768</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4977,16 +4987,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.38991028055932</v>
+        <v>53.32512094097171</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>186.4856794438429</v>
+        <v>223.8322273843831</v>
       </c>
       <c r="E14" t="n">
-        <v>82.19715756811694</v>
+        <v>73.40735421296768</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4998,16 +5008,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.65504757062689</v>
+        <v>90.93529484600964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08353985552580087</v>
+        <v>0.07271197588571829</v>
       </c>
       <c r="D15" t="n">
-        <v>396.6358880302786</v>
+        <v>380.9749260802158</v>
       </c>
       <c r="E15" t="n">
-        <v>65.8864597227082</v>
+        <v>56.78028842015506</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -5019,16 +5029,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.58079688762757</v>
+        <v>60.87149612295104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08354581448426923</v>
+        <v>0.072712166997419</v>
       </c>
       <c r="D16" t="n">
-        <v>262.0358752372101</v>
+        <v>254.8720579848281</v>
       </c>
       <c r="E16" t="n">
-        <v>65.88213236043042</v>
+        <v>56.77911361660124</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5049,7 +5059,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>629.9434846125162</v>
+        <v>587.5581856834091</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -5070,7 +5080,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.35455633087359</v>
+        <v>74.0152414976713</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -5082,16 +5092,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.32405073071766</v>
+        <v>75.77313297950684</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>332.1298004095149</v>
+        <v>317.2621077851952</v>
       </c>
       <c r="E19" t="n">
-        <v>79.35455633087359</v>
+        <v>74.0152414976713</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -5103,16 +5113,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.7051234570125</v>
+        <v>112.3094466991028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.151829855411826</v>
+        <v>0.154872953628209</v>
       </c>
       <c r="D20" t="n">
-        <v>2472.503768595481</v>
+        <v>2655.869843224162</v>
       </c>
       <c r="E20" t="n">
-        <v>19.15010412877916</v>
+        <v>20.12275313341867</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5124,16 +5134,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.178049190535</v>
+        <v>110.7704854431463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1442383626412347</v>
+        <v>0.1471293059467986</v>
       </c>
       <c r="D21" t="n">
-        <v>462.1686874021685</v>
+        <v>464.6761946173214</v>
       </c>
       <c r="E21" t="n">
-        <v>19.15010412877916</v>
+        <v>20.12275313341867</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5145,16 +5155,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.93157731281634</v>
+        <v>88.63773919862663</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>384.917514208762</v>
+        <v>371.1262140246498</v>
       </c>
       <c r="E22" t="n">
-        <v>629.9434846125162</v>
+        <v>587.5581856834091</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -5175,7 +5185,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>629.9434846125162</v>
+        <v>587.5581856834091</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -5187,7 +5197,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.2286618139886</v>
+        <v>55.78134946042392</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5196,7 +5206,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>629.9434846125162</v>
+        <v>587.5581856834091</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -5208,16 +5218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.05166142031482</v>
+        <v>92.29966714375905</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08793669002715881</v>
+        <v>0.07653892198496662</v>
       </c>
       <c r="D25" t="n">
-        <v>2404.932261505073</v>
+        <v>2562.306914701571</v>
       </c>
       <c r="E25" t="n">
-        <v>46.73887134586064</v>
+        <v>36.65759227815371</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5229,19 +5239,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>316.4626009879233</v>
+        <v>501.5635853650692</v>
       </c>
       <c r="C26" t="n">
-        <v>6.039902358957955</v>
+        <v>7.065771609690379</v>
       </c>
       <c r="D26" t="n">
-        <v>2940.745633108847</v>
+        <v>3414.413734653181</v>
       </c>
       <c r="E26" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F26" t="n">
-        <v>6.162745126944214</v>
+        <v>6.799776273662155</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5254,22 +5264,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154.2093391334964</v>
+        <v>188.9532144789284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.532373799014527</v>
+        <v>0.4764260408762546</v>
       </c>
       <c r="D27" t="n">
-        <v>2552.883165856999</v>
+        <v>2833.357290336608</v>
       </c>
       <c r="E27" t="n">
-        <v>59.24193353944644</v>
+        <v>57.24704862087318</v>
       </c>
       <c r="F27" t="n">
-        <v>6.336221327337203</v>
+        <v>7.034619444769353</v>
       </c>
       <c r="G27" t="n">
-        <v>90.5731999726854</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -5279,19 +5289,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.0455801923956</v>
+        <v>172.1301609827476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.68233608278521</v>
+        <v>0.5507594442340216</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.62311016077</v>
+        <v>2791.436919482449</v>
       </c>
       <c r="E28" t="n">
-        <v>22.95522402867049</v>
+        <v>16.16153181385486</v>
       </c>
       <c r="F28" t="n">
-        <v>6.78777742573677</v>
+        <v>6.877506944883707</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5304,22 +5314,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>154.2093391334964</v>
+        <v>184.6903107174138</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532373799014527</v>
+        <v>0.4764260408762546</v>
       </c>
       <c r="D29" t="n">
-        <v>2620.114679909819</v>
+        <v>2824.128159311381</v>
       </c>
       <c r="E29" t="n">
-        <v>82.19715756811694</v>
+        <v>73.40858043472804</v>
       </c>
       <c r="F29" t="n">
-        <v>6.493539789568837</v>
+        <v>7.014554650449295</v>
       </c>
       <c r="G29" t="n">
-        <v>93.77389544056682</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -5329,22 +5339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.9258803748293</v>
+        <v>112.3091696501232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2539287782489482</v>
+        <v>0.1548608536326563</v>
       </c>
       <c r="D30" t="n">
-        <v>2515.60216322931</v>
+        <v>2655.868833977725</v>
       </c>
       <c r="E30" t="n">
-        <v>82.19715756811694</v>
+        <v>73.40858043472804</v>
       </c>
       <c r="F30" t="n">
-        <v>6.544586303796584</v>
+        <v>7.111960819327652</v>
       </c>
       <c r="G30" t="n">
-        <v>90.7506464753492</v>
+        <v>98.26013078317533</v>
       </c>
     </row>
     <row r="31">
@@ -5354,22 +5364,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9179880709926</v>
+        <v>92.30067095500743</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1528643364945927</v>
+        <v>0.07654179810323844</v>
       </c>
       <c r="D31" t="n">
-        <v>2450.099670870776</v>
+        <v>2562.311512693861</v>
       </c>
       <c r="E31" t="n">
-        <v>82.19715756811694</v>
+        <v>53.28588429272669</v>
       </c>
       <c r="F31" t="n">
-        <v>6.583355181457698</v>
+        <v>7.172594043147219</v>
       </c>
       <c r="G31" t="n">
-        <v>89.03701807607764</v>
+        <v>95.56549732862646</v>
       </c>
     </row>
     <row r="32">
@@ -5379,22 +5389,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.9179880709926</v>
+        <v>69.72557339410724</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1528643364945927</v>
+        <v>0.03083247786773761</v>
       </c>
       <c r="D32" t="n">
-        <v>2450.099670870776</v>
+        <v>2562.311512693861</v>
       </c>
       <c r="E32" t="n">
-        <v>82.19715756811694</v>
+        <v>16.62824059636643</v>
       </c>
       <c r="F32" t="n">
-        <v>6.583355181457698</v>
+        <v>7.573414267257648</v>
       </c>
       <c r="G32" t="n">
-        <v>89.03701807607764</v>
+        <v>97.28691994367801</v>
       </c>
     </row>
     <row r="33">
@@ -5404,22 +5414,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.31256410763206</v>
+        <v>25.93693391867964</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0092609400675101</v>
+        <v>0.003351357609159946</v>
       </c>
       <c r="D33" t="n">
-        <v>2144.75341412643</v>
+        <v>2418.925369279153</v>
       </c>
       <c r="E33" t="n">
-        <v>82.19715756811694</v>
+        <v>16.62824059636643</v>
       </c>
       <c r="F33" t="n">
-        <v>6.800985082077105</v>
+        <v>8.104447331587371</v>
       </c>
       <c r="G33" t="n">
-        <v>81.78152454986602</v>
+        <v>94.70059686354877</v>
       </c>
     </row>
     <row r="34">
@@ -5429,16 +5439,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.31256410794015</v>
+        <v>25.93693391867964</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0092609400675101</v>
+        <v>0.003351357609159946</v>
       </c>
       <c r="D34" t="n">
-        <v>185.5608042155239</v>
+        <v>108.7470968176052</v>
       </c>
       <c r="E34" t="n">
-        <v>82.19715756811694</v>
+        <v>16.62824059636643</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5450,16 +5460,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.38991028055932</v>
+        <v>27.96044913350698</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>186.4856794438429</v>
+        <v>117.8430183583936</v>
       </c>
       <c r="E35" t="n">
-        <v>82.19715756811694</v>
+        <v>16.62824059636643</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5555,16 +5565,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>298.2426525228359</v>
+        <v>500.7327898223684</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3020.100249864469</v>
+        <v>3469.857823264741</v>
       </c>
       <c r="E40" t="n">
-        <v>7.23256039842187</v>
+        <v>10.16421414618806</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5597,16 +5607,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>313.2426525228359</v>
+        <v>515.7327898223684</v>
       </c>
       <c r="C42" t="n">
-        <v>5.648268236448593</v>
+        <v>6.315893557785028</v>
       </c>
       <c r="D42" t="n">
-        <v>2944.158864919954</v>
+        <v>3456.979834842678</v>
       </c>
       <c r="E42" t="n">
-        <v>8.819231512794294</v>
+        <v>11.80169862889908</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/resdataTemp-10.xlsx
+++ b/resdataTemp-10.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>441.6935085719268</v>
+        <v>441.6636348834714</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64212296287072</v>
+        <v>13.6421265649446</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7915111495577</v>
+        <v>540.7920972566994</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3607579083323</v>
+        <v>964.3619109374409</v>
       </c>
       <c r="E5" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3089471865653</v>
+        <v>465.3117766402605</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.951503617692</v>
+        <v>877.9551771049727</v>
       </c>
       <c r="E6" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7699684854184</v>
+        <v>290.7651768219746</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.9269921756586</v>
+        <v>683.9222070119511</v>
       </c>
       <c r="E7" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0859525590408</v>
+        <v>225.0858040536906</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9022629804614</v>
+        <v>612.9025266480737</v>
       </c>
       <c r="E8" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.1655579176839</v>
+        <v>224.1654016673962</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9139751664309</v>
+        <v>611.9142304088325</v>
       </c>
       <c r="E9" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6343627473649</v>
+        <v>165.6342708716423</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.4199281696549</v>
+        <v>549.4202449568249</v>
       </c>
       <c r="E10" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.5573557622705</v>
+        <v>101.5577520480478</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.6986468507215</v>
+        <v>481.6994692501485</v>
       </c>
       <c r="E11" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.931491725058</v>
+        <v>12.93149513949641</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7106312378127234</v>
+        <v>0.7106314254481981</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762715414389616</v>
+        <v>4.762712211362524</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944162</v>
+        <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6370468121098128</v>
+        <v>0.636996360282695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6721791562717013</v>
+        <v>0.6721348311381147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.947733660239105</v>
+        <v>0.9477210981672824</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.98498862446562</v>
+        <v>52.9828103218236</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.26376651926252</v>
+        <v>33.26256580715704</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492921113805505</v>
+        <v>0.8492922202362853</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.35167821764882</v>
+        <v>12.35142059627794</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8175650581806845</v>
+        <v>0.8175660495481657</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.985284596669432</v>
+        <v>4.984945416950699</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8085096643648753</v>
+        <v>0.8085125787343245</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.384259290884858</v>
+        <v>2.383878501437922</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.474456757576345</v>
+        <v>0.4744237604151448</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1512491718259022</v>
+        <v>0.1512384424414692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1683193851752995</v>
+        <v>0.168307577999764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8985843886512582</v>
+        <v>0.898583677804937</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41430.8049675158</v>
+        <v>41431.11207941722</v>
       </c>
       <c r="C2" t="n">
-        <v>41849.29794698566</v>
+        <v>41849.6081610275</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91117.01416710748</v>
+        <v>91116.79149151055</v>
       </c>
       <c r="C3" t="n">
-        <v>92037.38804758331</v>
+        <v>92037.16312273793</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39133.12345471172</v>
+        <v>39137.89660960663</v>
       </c>
       <c r="C4" t="n">
-        <v>39528.40753001184</v>
+        <v>39533.22889859256</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8294218061172</v>
+        <v>512.823237688891</v>
       </c>
       <c r="C5" t="n">
-        <v>518.009516975876</v>
+        <v>518.0032703928192</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32895.1755413391</v>
+        <v>32891.47643076156</v>
       </c>
       <c r="C6" t="n">
-        <v>33227.45004175667</v>
+        <v>33223.71356642582</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37171.63716450283</v>
+        <v>37170.15780270441</v>
       </c>
       <c r="C7" t="n">
-        <v>37547.10824697255</v>
+        <v>37545.61394212567</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.65192036984607</v>
+        <v>43.65146373624152</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.83020558962365</v>
+        <v>80.83069479314869</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.08842545140678</v>
+        <v>7.088392881486287</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.7286169355943</v>
+        <v>515.7348288661047</v>
       </c>
       <c r="C3" t="n">
-        <v>6.31587454118099</v>
+        <v>6.315482196737014</v>
       </c>
       <c r="D3" t="n">
-        <v>3456.971781126957</v>
+        <v>3456.991093095053</v>
       </c>
       <c r="E3" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.7922294228541</v>
+        <v>282.7875400979758</v>
       </c>
       <c r="C4" t="n">
-        <v>6.691222675785147</v>
+        <v>6.69075403950382</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.547147633888</v>
+        <v>2776.552946258451</v>
       </c>
       <c r="E4" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2451341377596</v>
+        <v>282.2577672145089</v>
       </c>
       <c r="C5" t="n">
-        <v>6.691222675785147</v>
+        <v>6.69075403950382</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.639928996348</v>
+        <v>1248.707550829844</v>
       </c>
       <c r="E5" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.4126696814571</v>
+        <v>162.4139745670269</v>
       </c>
       <c r="C6" t="n">
-        <v>6.691222675785147</v>
+        <v>6.69075403950382</v>
       </c>
       <c r="D6" t="n">
-        <v>689.4588825999288</v>
+        <v>689.4642475900487</v>
       </c>
       <c r="E6" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2930310772542</v>
+        <v>155.2925917600576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5476703768085152</v>
+        <v>0.547664105403629</v>
       </c>
       <c r="D7" t="n">
-        <v>655.0582346072335</v>
+        <v>655.0563323184593</v>
       </c>
       <c r="E7" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.4000609495658</v>
+        <v>168.3956871082249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5415472875364271</v>
+        <v>0.5415197885530074</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.5723410928</v>
+        <v>2783.56295396354</v>
       </c>
       <c r="E8" t="n">
-        <v>14.18142429997125</v>
+        <v>14.18015143115155</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.2930309601196</v>
+        <v>155.2925916429241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5476703768085152</v>
+        <v>0.547664105403629</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.146854712702</v>
+        <v>2752.146349938683</v>
       </c>
       <c r="E9" t="n">
-        <v>14.18142429997125</v>
+        <v>14.18015143115155</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2930310772542</v>
+        <v>155.2925917600576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5476703768085152</v>
+        <v>0.547664105403629</v>
       </c>
       <c r="D10" t="n">
-        <v>677.0168009633944</v>
+        <v>677.0295567789606</v>
       </c>
       <c r="E10" t="n">
-        <v>71.42847292084443</v>
+        <v>71.42533952963741</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.2930310772542</v>
+        <v>155.2925917600576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5476703768085152</v>
+        <v>0.547664105403629</v>
       </c>
       <c r="D11" t="n">
-        <v>677.0168009633944</v>
+        <v>677.0295567789606</v>
       </c>
       <c r="E11" t="n">
-        <v>71.7631288868353</v>
+        <v>71.75573196776064</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5476703768085152</v>
+        <v>0.547664105403629</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6235098255961</v>
+        <v>251.6235045595083</v>
       </c>
       <c r="E12" t="n">
-        <v>71.76791593658008</v>
+        <v>71.76209257464961</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.48785363343694</v>
+        <v>59.4904601016359</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.6058202598611</v>
+        <v>249.6167241875235</v>
       </c>
       <c r="E13" t="n">
-        <v>71.42611643263363</v>
+        <v>71.42168249870531</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.8082420200904</v>
+        <v>58.81132392682582</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>246.762825145203</v>
+        <v>246.7757171319036</v>
       </c>
       <c r="E14" t="n">
-        <v>59.62441780373456</v>
+        <v>59.6201262979805</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.16881221710213</v>
+        <v>96.17355934847518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08831407603724911</v>
+        <v>0.08832939660211436</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0134433755067</v>
+        <v>403.0334472781195</v>
       </c>
       <c r="E15" t="n">
-        <v>55.17747757165549</v>
+        <v>55.17717421040872</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.76507347980208</v>
+        <v>61.76595439689117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08831418976681886</v>
+        <v>0.08832913960982254</v>
       </c>
       <c r="D16" t="n">
-        <v>258.6252618302136</v>
+        <v>258.6289616480707</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17816390027806</v>
+        <v>55.1779303576434</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>581.7556287869781</v>
+        <v>581.7573834463985</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.28428810367889</v>
+        <v>73.28450913972929</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.60518292069392</v>
+        <v>78.60781298636502</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>329.1199008889455</v>
+        <v>329.1309129739104</v>
       </c>
       <c r="E19" t="n">
-        <v>73.28428810367889</v>
+        <v>73.28450913972929</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.0493192832814</v>
+        <v>111.0508436369658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1485145616853108</v>
+        <v>0.148509136516228</v>
       </c>
       <c r="D20" t="n">
-        <v>2691.343917601151</v>
+        <v>2691.364966425395</v>
       </c>
       <c r="E20" t="n">
-        <v>14.1100594444432</v>
+        <v>14.10503124321583</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.5214031221005</v>
+        <v>109.5203187458071</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1410888336010453</v>
+        <v>0.1410836796904166</v>
       </c>
       <c r="D21" t="n">
-        <v>459.390015475868</v>
+        <v>459.3854273378757</v>
       </c>
       <c r="E21" t="n">
-        <v>14.1100594444432</v>
+        <v>14.10503124321583</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58178253941762</v>
+        <v>93.58623547022925</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8269234925416</v>
+        <v>391.8455679138499</v>
       </c>
       <c r="E22" t="n">
-        <v>581.7556287869781</v>
+        <v>581.7573834463985</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>581.7556287869781</v>
+        <v>581.7573834463985</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.13810537913624</v>
+        <v>56.1384366909119</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>581.7556287869781</v>
+        <v>581.7573834463985</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.57866556256897</v>
+        <v>97.58345432037964</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09296218530236749</v>
+        <v>0.09297831221275196</v>
       </c>
       <c r="D25" t="n">
-        <v>2626.956308939296</v>
+        <v>2626.993279016209</v>
       </c>
       <c r="E25" t="n">
-        <v>41.06737929276033</v>
+        <v>41.07203166804273</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.830328415958</v>
+        <v>512.8367461560853</v>
       </c>
       <c r="C26" t="n">
-        <v>5.691372038698633</v>
+        <v>5.690991206515659</v>
       </c>
       <c r="D26" t="n">
-        <v>3456.971781126957</v>
+        <v>3456.991093095053</v>
       </c>
       <c r="E26" t="n">
-        <v>45.44258263898797</v>
+        <v>45.43925147156073</v>
       </c>
       <c r="F26" t="n">
-        <v>6.949347330957006</v>
+        <v>6.949401498884642</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202.0575306174369</v>
+        <v>202.0637531301424</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3991381166026927</v>
+        <v>0.3991171943404735</v>
       </c>
       <c r="D27" t="n">
-        <v>2865.281238101027</v>
+        <v>2865.295296545134</v>
       </c>
       <c r="E27" t="n">
-        <v>45.44258263898797</v>
+        <v>45.43925147156073</v>
       </c>
       <c r="F27" t="n">
-        <v>7.18245730159173</v>
+        <v>7.182510575324691</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.6565094689856</v>
+        <v>165.6512909891979</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4563727198522489</v>
+        <v>0.4563415237457553</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.5723410928</v>
+        <v>2783.56295396354</v>
       </c>
       <c r="E28" t="n">
-        <v>14.18142429997125</v>
+        <v>14.18015143115155</v>
       </c>
       <c r="F28" t="n">
-        <v>6.943287615756676</v>
+        <v>6.943296689212759</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.8068189687049</v>
+        <v>192.8104243825809</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3991381166026927</v>
+        <v>0.3991171943404735</v>
       </c>
       <c r="D29" t="n">
-        <v>2845.846976684437</v>
+        <v>2845.85570241634</v>
       </c>
       <c r="E29" t="n">
-        <v>59.62400693895923</v>
+        <v>59.61940290271227</v>
       </c>
       <c r="F29" t="n">
-        <v>7.141157133523392</v>
+        <v>7.141199505078996</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.049120671381</v>
+        <v>111.0512606890557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1485053497978045</v>
+        <v>0.1485159590828193</v>
       </c>
       <c r="D30" t="n">
-        <v>2691.343081837941</v>
+        <v>2691.366721517541</v>
       </c>
       <c r="E30" t="n">
-        <v>59.62400693895923</v>
+        <v>59.61940290271227</v>
       </c>
       <c r="F30" t="n">
-        <v>7.222922225691658</v>
+        <v>7.222951461432933</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94123601850299</v>
+        <v>99.94215211110372</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.57881446776241</v>
+        <v>97.58322094489267</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0929626867295385</v>
+        <v>0.09297752622958982</v>
       </c>
       <c r="D31" t="n">
-        <v>2626.957151845601</v>
+        <v>2626.99189987362</v>
       </c>
       <c r="E31" t="n">
-        <v>45.51390866006406</v>
+        <v>45.51426036034628</v>
       </c>
       <c r="F31" t="n">
-        <v>7.262596556365734</v>
+        <v>7.262619132047566</v>
       </c>
       <c r="G31" t="n">
-        <v>98.02116653337511</v>
+        <v>98.02238225817142</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.12668182849848</v>
+        <v>68.14418947290636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008700720456193632</v>
+        <v>0.008693612175356623</v>
       </c>
       <c r="D32" t="n">
-        <v>2626.957151845601</v>
+        <v>2626.99189987362</v>
       </c>
       <c r="E32" t="n">
-        <v>4.446253903456501</v>
+        <v>4.442195940337101</v>
       </c>
       <c r="F32" t="n">
-        <v>8.343505637917774</v>
+        <v>8.343983899241669</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.40403083397189</v>
+        <v>64.44073444376102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002575626936486265</v>
+        <v>0.002575371265242904</v>
       </c>
       <c r="D33" t="n">
-        <v>2621.134363081158</v>
+        <v>2621.203594690891</v>
       </c>
       <c r="E33" t="n">
-        <v>4.446253903456501</v>
+        <v>4.442195940337101</v>
       </c>
       <c r="F33" t="n">
-        <v>8.887492010485975</v>
+        <v>8.887742883622032</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.56288946507158</v>
+        <v>21.56126751099697</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002575626936486265</v>
+        <v>0.002575371265242904</v>
       </c>
       <c r="D34" t="n">
-        <v>90.45324241248126</v>
+        <v>90.44645698616928</v>
       </c>
       <c r="E34" t="n">
-        <v>4.446253903456501</v>
+        <v>4.442195940337101</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.58334316855468</v>
+        <v>23.58171994809703</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.54957779706066</v>
+        <v>99.542792423149</v>
       </c>
       <c r="E35" t="n">
-        <v>4.446253903456501</v>
+        <v>4.442195940337101</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7327898223684</v>
+        <v>500.7318440022365</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.857823264741</v>
+        <v>3469.855736437651</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421414618806</v>
+        <v>10.16420731053855</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80169862889908</v>
+        <v>11.80155620072482</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7327898223684</v>
+        <v>515.7318440022365</v>
       </c>
       <c r="C42" t="n">
-        <v>6.315893557785028</v>
+        <v>6.315523493154171</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.979834842678</v>
+        <v>3456.983207180043</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80169862889908</v>
+        <v>11.80155620072482</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396540444242</v>
+        <v>11.97395735169682</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762715414389616</v>
+        <v>4.762712211362524</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944162</v>
+        <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.969335568227366</v>
+        <v>1.969687581798896</v>
       </c>
       <c r="C2" t="n">
-        <v>2.244959578363231</v>
+        <v>2.245427784640804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8772254018324828</v>
+        <v>0.877199255870962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1955108227582071</v>
+        <v>0.1954547514328057</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.5696394800631</v>
+        <v>125.5550869940141</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.30067123240439</v>
+        <v>31.29944166031521</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.216318113864557</v>
+        <v>6.216287236697489</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.05643263052471</v>
+        <v>39.0524400690686</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.88794639816349</v>
+        <v>26.88621409409723</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493769984577765</v>
+        <v>0.8493770086586246</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.21214129842369</v>
+        <v>9.210540796234925</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8310325985002277</v>
+        <v>0.8310408216483812</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.930455336664628</v>
+        <v>2.929972392952286</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8140395865460741</v>
+        <v>0.8140370818049224</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02588959727290926</v>
+        <v>0.02571278578414846</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03395232368569347</v>
+        <v>0.03376960093051103</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04044461671083568</v>
+        <v>0.04040770435009579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04531822988897055</v>
+        <v>0.04527695319557039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924579978062868</v>
+        <v>0.8924563491619621</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38951.76024915082</v>
+        <v>38948.06890444394</v>
       </c>
       <c r="C2" t="n">
-        <v>39345.21237287962</v>
+        <v>39341.48374186257</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87462.81071618192</v>
+        <v>87460.88590235793</v>
       </c>
       <c r="C3" t="n">
-        <v>88346.27345068881</v>
+        <v>88344.32919430094</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32016.68902345626</v>
+        <v>32012.3129494393</v>
       </c>
       <c r="C4" t="n">
-        <v>32340.08992268309</v>
+        <v>32335.66964589829</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.5026293803312</v>
+        <v>445.4772020268809</v>
       </c>
       <c r="C5" t="n">
-        <v>450.0026559397285</v>
+        <v>449.9769717443242</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28171.20869287788</v>
+        <v>28169.33291585081</v>
       </c>
       <c r="C6" t="n">
-        <v>28455.7663564423</v>
+        <v>28453.87163217253</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30527.5532737252</v>
+        <v>30525.32275551567</v>
       </c>
       <c r="C7" t="n">
-        <v>30835.91239770222</v>
+        <v>30833.65934900572</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.17807221388225</v>
+        <v>31.16731972171745</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.20571388264345</v>
+        <v>91.21602848683031</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.887412111453247</v>
+        <v>7.888242916274319</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34608.79345704673</v>
+        <v>34608.74897095619</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3074.156124691488</v>
+        <v>3073.785634931607</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22647.67139492716</v>
+        <v>22647.67737483115</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.77877122556</v>
+        <v>7875.773474597359</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.893695921557</v>
+        <v>5689.889869347413</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.08983187142</v>
+        <v>21121.07562749071</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37760.91842371002</v>
+        <v>37760.52460636709</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7579961335268812</v>
+        <v>0.7579082880237483</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4343,7 +4343,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>441.6935085719268</v>
+        <v>441.6636348834714</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -4377,7 +4377,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64212296287072</v>
+        <v>13.6421265649446</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -4402,31 +4402,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7915111495577</v>
+        <v>540.7920972566994</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3607579083323</v>
+        <v>964.3619109374409</v>
       </c>
       <c r="E5" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="6">
@@ -4436,31 +4436,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3089471865653</v>
+        <v>465.3117766402605</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.951503617692</v>
+        <v>877.9551771049727</v>
       </c>
       <c r="E6" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="7">
@@ -4470,31 +4470,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7699684854184</v>
+        <v>290.7651768219746</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.9269921756586</v>
+        <v>683.9222070119511</v>
       </c>
       <c r="E7" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="8">
@@ -4504,31 +4504,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0859525590408</v>
+        <v>225.0858040536906</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9022629804614</v>
+        <v>612.9025266480737</v>
       </c>
       <c r="E8" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="9">
@@ -4538,31 +4538,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.1655579176839</v>
+        <v>224.1654016673962</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9139751664309</v>
+        <v>611.9142304088325</v>
       </c>
       <c r="E9" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="10">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6343627473649</v>
+        <v>165.6342708716423</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.4199281696549</v>
+        <v>549.4202449568249</v>
       </c>
       <c r="E10" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="11">
@@ -4606,31 +4606,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.5573557622705</v>
+        <v>101.5577520480478</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.6986468507215</v>
+        <v>481.6994692501485</v>
       </c>
       <c r="E11" t="n">
-        <v>455.3356315347975</v>
+        <v>455.305761448416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781542565806981</v>
+        <v>0.7781541153460465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202126653757787</v>
+        <v>0.120212435836456</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195319706812531</v>
+        <v>0.03195331904712809</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06311418729754038</v>
+        <v>0.06311443176849842</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565693677857401</v>
+        <v>0.006565698001870996</v>
       </c>
     </row>
     <row r="12">
@@ -4649,7 +4649,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.931491725058</v>
+        <v>12.93149513949641</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7106312378127234</v>
+        <v>0.7106314254481981</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4756,16 +4756,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.4800014123524</v>
+        <v>504.4804110226569</v>
       </c>
       <c r="C3" t="n">
-        <v>7.67285960088725</v>
+        <v>7.672694881094681</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.413734653181</v>
+        <v>3414.414829442784</v>
       </c>
       <c r="E3" t="n">
-        <v>63.12675434888783</v>
+        <v>63.12171323392958</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.3841570951976</v>
+        <v>295.3841302934933</v>
       </c>
       <c r="C4" t="n">
-        <v>8.043220764239049</v>
+        <v>8.043217680576669</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.03902461597</v>
+        <v>2758.03907069447</v>
       </c>
       <c r="E4" t="n">
-        <v>63.12675434888783</v>
+        <v>63.12171323392958</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4798,16 +4798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5169295346554</v>
+        <v>294.5385868382981</v>
       </c>
       <c r="C5" t="n">
-        <v>8.043220764239049</v>
+        <v>8.043217680576669</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.515829787674</v>
+        <v>1314.637062869553</v>
       </c>
       <c r="E5" t="n">
-        <v>63.12675434888783</v>
+        <v>63.12171323392958</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4819,16 +4819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.4205302440485</v>
+        <v>163.419574250395</v>
       </c>
       <c r="C6" t="n">
-        <v>8.043220764239049</v>
+        <v>8.043217680576669</v>
       </c>
       <c r="D6" t="n">
-        <v>694.6017328311347</v>
+        <v>694.5976016486921</v>
       </c>
       <c r="E6" t="n">
-        <v>63.12675434888783</v>
+        <v>63.12171323392958</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4840,16 +4840,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.0784429875872</v>
+        <v>162.0774920139896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6516114358505281</v>
+        <v>0.6515958435740593</v>
       </c>
       <c r="D7" t="n">
-        <v>684.5101826052353</v>
+        <v>684.5060447557101</v>
       </c>
       <c r="E7" t="n">
-        <v>63.12675434888783</v>
+        <v>63.12171323392958</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4861,16 +4861,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9929102495527</v>
+        <v>174.9920085141883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6447003260505848</v>
+        <v>0.6446961465614691</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.436919482449</v>
+        <v>2791.435907820791</v>
       </c>
       <c r="E8" t="n">
-        <v>16.16153181385486</v>
+        <v>16.16212771313916</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4882,16 +4882,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.0784428568525</v>
+        <v>162.0774918832564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6516114358505281</v>
+        <v>0.6515958435740593</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.705365511231</v>
+        <v>2759.704340177482</v>
       </c>
       <c r="E9" t="n">
-        <v>16.16153181385486</v>
+        <v>16.16212771313916</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4903,16 +4903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.0784429875872</v>
+        <v>162.0774920139896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6516114358505281</v>
+        <v>0.6515958435740593</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6528213112704</v>
+        <v>692.664734898662</v>
       </c>
       <c r="E10" t="n">
-        <v>79.28828616274269</v>
+        <v>79.28384094706874</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.0784429875872</v>
+        <v>162.0774920139896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6516114358505281</v>
+        <v>0.6515958435740593</v>
       </c>
       <c r="D11" t="n">
-        <v>692.6528213112704</v>
+        <v>692.664734898662</v>
       </c>
       <c r="E11" t="n">
-        <v>84.30050744792985</v>
+        <v>84.29487295482396</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4948,13 +4948,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6516114358505281</v>
+        <v>0.6515958435740593</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7107879852819</v>
+        <v>251.7107748927252</v>
       </c>
       <c r="E12" t="n">
-        <v>84.30079480163049</v>
+        <v>84.29563441625061</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4966,16 +4966,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.32512094097171</v>
+        <v>53.32529276929682</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>223.8322273843831</v>
+        <v>223.8329458024554</v>
       </c>
       <c r="E13" t="n">
-        <v>73.40735421296768</v>
+        <v>73.40547198693471</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.32512094097171</v>
+        <v>53.32529276929682</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>223.8322273843831</v>
+        <v>223.8329458024554</v>
       </c>
       <c r="E14" t="n">
-        <v>73.40735421296768</v>
+        <v>73.40547198693471</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.93529484600964</v>
+        <v>90.93549436676903</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07271197588571829</v>
+        <v>0.07271252363898523</v>
       </c>
       <c r="D15" t="n">
-        <v>380.9749260802158</v>
+        <v>380.9757657190154</v>
       </c>
       <c r="E15" t="n">
-        <v>56.78028842015506</v>
+        <v>56.7803158176284</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -5029,16 +5029,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.87149612295104</v>
+        <v>60.87139404249177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.072712166997419</v>
+        <v>0.0727125283531021</v>
       </c>
       <c r="D16" t="n">
-        <v>254.8720579848281</v>
+        <v>254.8716310397076</v>
       </c>
       <c r="E16" t="n">
-        <v>56.77911361660124</v>
+        <v>56.77841109254324</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.77313297950684</v>
+        <v>75.77302788196047</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>317.2621077851952</v>
+        <v>317.2616677417685</v>
       </c>
       <c r="E19" t="n">
         <v>74.0152414976713</v>
@@ -5113,16 +5113,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.3094466991028</v>
+        <v>112.3089639516001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154872953628209</v>
+        <v>0.1548727158719368</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.869843224162</v>
+        <v>2655.871357880969</v>
       </c>
       <c r="E20" t="n">
-        <v>20.12275313341867</v>
+        <v>20.12252693918409</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.7704854431463</v>
+        <v>110.7704395325284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1471293059467986</v>
+        <v>0.1471290800783399</v>
       </c>
       <c r="D21" t="n">
-        <v>464.6761946173214</v>
+        <v>464.6760002787805</v>
       </c>
       <c r="E21" t="n">
-        <v>20.12275313341867</v>
+        <v>20.12252693918409</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.63773919862663</v>
+        <v>88.63792481403574</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>371.1262140246498</v>
+        <v>371.1269911963677</v>
       </c>
       <c r="E22" t="n">
         <v>587.5581856834091</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.78134946042392</v>
+        <v>55.78133622118997</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5218,16 +5218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.29966714375905</v>
+        <v>92.29986838274272</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07653892198496662</v>
+        <v>0.07653949856735287</v>
       </c>
       <c r="D25" t="n">
-        <v>2562.306914701571</v>
+        <v>2562.311212653154</v>
       </c>
       <c r="E25" t="n">
-        <v>36.65759227815371</v>
+        <v>36.65777564268831</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5239,19 +5239,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.5635853650692</v>
+        <v>501.5629436007671</v>
       </c>
       <c r="C26" t="n">
-        <v>7.065771609690379</v>
+        <v>7.06554577295436</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.413734653181</v>
+        <v>3414.414829442784</v>
       </c>
       <c r="E26" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F26" t="n">
-        <v>6.799776273662155</v>
+        <v>6.799791621679039</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5264,19 +5264,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.9532144789284</v>
+        <v>188.9544967009612</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4764260408762546</v>
+        <v>0.4764187172191704</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.357290336608</v>
+        <v>2833.360475146115</v>
       </c>
       <c r="E27" t="n">
-        <v>57.24704862087318</v>
+        <v>57.24518809848587</v>
       </c>
       <c r="F27" t="n">
-        <v>7.034619444769353</v>
+        <v>7.034633230599141</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5289,19 +5289,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1301609827476</v>
+        <v>172.1296606045859</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5507594442340216</v>
+        <v>0.5507576022403075</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.436919482449</v>
+        <v>2791.435907820791</v>
       </c>
       <c r="E28" t="n">
-        <v>16.16153181385486</v>
+        <v>16.16212771313916</v>
       </c>
       <c r="F28" t="n">
-        <v>6.877506944883707</v>
+        <v>6.877506155889331</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5314,19 +5314,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.6903107174138</v>
+        <v>184.6909216364135</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4764260408762546</v>
+        <v>0.4764187172191704</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.128159311381</v>
+        <v>2824.129920889523</v>
       </c>
       <c r="E29" t="n">
-        <v>73.40858043472804</v>
+        <v>73.40731581162503</v>
       </c>
       <c r="F29" t="n">
-        <v>7.014554650449295</v>
+        <v>7.014565383300441</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5339,22 +5339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.3091696501232</v>
+        <v>112.3089223549857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1548608536326563</v>
+        <v>0.1548595847555304</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.868833977725</v>
+        <v>2655.871206349767</v>
       </c>
       <c r="E30" t="n">
-        <v>73.40858043472804</v>
+        <v>73.40731581162503</v>
       </c>
       <c r="F30" t="n">
-        <v>7.111960819327652</v>
+        <v>7.111970613654596</v>
       </c>
       <c r="G30" t="n">
-        <v>98.26013078317533</v>
+        <v>98.26025474701771</v>
       </c>
     </row>
     <row r="31">
@@ -5364,22 +5364,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.30067095500743</v>
+        <v>92.30146402085245</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07654179810323844</v>
+        <v>0.07654407045773079</v>
       </c>
       <c r="D31" t="n">
-        <v>2562.311512693861</v>
+        <v>2562.318303904613</v>
       </c>
       <c r="E31" t="n">
-        <v>53.28588429272669</v>
+        <v>53.28477563668493</v>
       </c>
       <c r="F31" t="n">
-        <v>7.172594043147219</v>
+        <v>7.17259970081026</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56549732862646</v>
+        <v>95.56573527890174</v>
       </c>
     </row>
     <row r="32">
@@ -5389,22 +5389,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.72557339410724</v>
+        <v>69.72394745115065</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03083247786773761</v>
+        <v>0.03083030584991825</v>
       </c>
       <c r="D32" t="n">
-        <v>2562.311512693861</v>
+        <v>2562.318303904613</v>
       </c>
       <c r="E32" t="n">
-        <v>16.62824059636643</v>
+        <v>16.62706089439146</v>
       </c>
       <c r="F32" t="n">
-        <v>7.573414267257648</v>
+        <v>7.573465480967872</v>
       </c>
       <c r="G32" t="n">
-        <v>97.28691994367801</v>
+        <v>97.28733484419277</v>
       </c>
     </row>
     <row r="33">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.93693391867964</v>
+        <v>25.93655630485563</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003351357609159946</v>
+        <v>0.003351282702259306</v>
       </c>
       <c r="D33" t="n">
-        <v>2418.925369279153</v>
+        <v>2418.944888928907</v>
       </c>
       <c r="E33" t="n">
-        <v>16.62824059636643</v>
+        <v>16.62706089439146</v>
       </c>
       <c r="F33" t="n">
-        <v>8.104447331587371</v>
+        <v>8.104522348178104</v>
       </c>
       <c r="G33" t="n">
-        <v>94.70059686354877</v>
+        <v>94.70142699222495</v>
       </c>
     </row>
     <row r="34">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.93693391867964</v>
+        <v>25.93655630485563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003351357609159946</v>
+        <v>0.003351282702259306</v>
       </c>
       <c r="D34" t="n">
-        <v>108.7470968176052</v>
+        <v>108.7455178578272</v>
       </c>
       <c r="E34" t="n">
-        <v>16.62824059636643</v>
+        <v>16.62706089439146</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5460,16 +5460,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.96044913350698</v>
+        <v>27.96007128535859</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>117.8430183583936</v>
+        <v>117.8414394643021</v>
       </c>
       <c r="E35" t="n">
-        <v>16.62824059636643</v>
+        <v>16.62706089439146</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7327898223684</v>
+        <v>500.7318440022365</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.857823264741</v>
+        <v>3469.855736437651</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421414618806</v>
+        <v>10.16420731053855</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5607,16 +5607,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7327898223684</v>
+        <v>515.7318440022365</v>
       </c>
       <c r="C42" t="n">
-        <v>6.315893557785028</v>
+        <v>6.315523493154171</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.979834842678</v>
+        <v>3456.983207180043</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80169862889908</v>
+        <v>11.80155620072482</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
